--- a/output/Total_time_range_data/安徽省/淮北市_学习考察.xlsx
+++ b/output/Total_time_range_data/安徽省/淮北市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2494 +436,2730 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>98</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>赵德志率我县党政考察团赴蒙城县考察学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2020-05-13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/bmdt/56524351.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['在亳州市委常委、蒙城县委书记车照启，蒙城县委副书记、县长孔祥永的带领下，我县党政考察团一行先后来到梦蝶湖公园、城市规划馆、森林公园东区项目、蒙城第三自来水厂、智慧城市“三大中心”等地参观考察，实地了解蒙城新型城镇化规划、城市基础设施建设、城镇管理等亮点工作。', '赵德志在考察中表示，通过今天的考察，蒙城在科学规划大手笔引领发展、集中理念大气魄推进建设、创新举措大步伐推进开发、以实干作风大跨越实现崛起等方面值得我县学习，蒙城距离濉溪县不远，两县同属于皖北地区，蒙城走过的路，有好多方面我们濉溪县是可以复制的，有好多经验我们可以直接使用的，特别是蒙城发展的理念、创新的举措、实干的精神尤其值得我们全县学习。我们回去后将结合实际情况，认真总结研究，借鉴蒙城新型城镇化建设的思路和做法，充分运用到濉溪县城镇建设工作中，大胆制定科学合理的城市建设发展规划,不断提升城市品位和形象。', '蒙城县隶属亳州市，总面积2091平方公里，辖17个乡镇（街道）、1个省级经济开发区，人口142万。蒙城是庄子故里、中国楹联之乡、省级历史文化名城，也是国家园林县城、全国粮食生产先进县、全国绿化先进县、全国科普示范县、全省文明县、全省园林县城、全省教育强县。尤其是近年来，蒙城县紧紧围绕建设皖北区域性县级中心城市的目标，牢固树立“五大发展理念”，坚持城乡全覆盖、规划一张图、建设一盘棋，致力打造生态宜居城市；以适度超前的城镇化，带动“四化”协调发展，走出了一条蒙城特色的新型城镇化之路。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>98</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>濉溪县教育局考察团赴江苏考察学习教育工作</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2021-12-27</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.sxx.gov.cn/xwzx/bmdt/60616331.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['12月23日—25日，县教育局党组书记、局长周鹏带队赴江苏省海安市、启东市考察学习教育工作，寻策问道，深化合作，为我县教育高质量发展探寻发展路径。县教育局及濉溪中学、濉溪中等职业技术学校等有关参加考察学习。', '考察团一行先后到海安高级中学、海安第二实验幼儿园、海安实验小学、海陵中学、启东中学调研考察。通过参观校园校貌、听取学校介绍、观摩学生素质展示、与师生对话等形式，了解和体会海安和启东各学校的办学特色和办学理念。', '考察过程中，大家边看、边听、边思、边议，真切地感受到海安和启东市坚持教育优先发展战略，聚焦教育高质量发展，坚持“五育”并举，激发教育发展活力，促进教育内涵发展，所呈现的巨大发展变化。所参观的学校，精致的文化、严谨的教风、踏实的学风、辉煌的成绩，给考察团成员留下了深刻的印象，深受触动、深受教育，也深受启发。', '考察团先后在海安市教体局、启东市教体局召开教育合作交流座谈会，就校干及教师素质提升、队伍建设、教学教研、学校管理、新高考改革以及多元合作办学事宜等方面与海安市及启东市教育同仁进行了广泛深入交流，并达成教育合作意向。', '通过此次考察，解放了思想，开阔了视野，为我县教育下一步改革发展提供了路径参考，为我县教育质量提升提供了经验借鉴，必将有力推动我县教育下一步更高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>98</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>县文联赴中国文学之乡沛县考察学习</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.sxx.gov.cn/xwzx/bmdt/60848806.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['7月19日，由濉溪县文联主席毕永杰、副主席陆荣坤带队，县作家协会主席及其他骨干成员等一行赴“中国文学之乡”——江苏沛县考察学习。', '沛县，历史悠久、资源富集，是江苏省和华东地区的煤炭主产地，是首批全国文明县城、全国科技进步先进县，全国百强县、全国工业百强县、国家园林县城等。作为汉高祖故里、汉文化的发源地，历史文化底蕴深厚，尤其是文学创作人才荟萃，文艺事业发展成就突出，是全国著名的武术之乡、诗词之乡、书画之乡、古筝之乡、唢呐之乡。2022年11月被评定为全国第15个“中国文学之乡”，是苏北首家获此殊荣的县。', '沛县文联党组书记、主席杨林静向濉溪县考察组介绍了“中国文学之乡”创建工作情况，重点从“歌风文艺奖”设立、文学创作资金保障、文学刊物创办、阅读空间打造、文学活动开展、文艺公益讲堂开设等方面作了详细介绍。并重点指出，沛县“中华文学之乡”的创建成功要感谢县委县政府的高度重视和鼎力支持。', '考察组还认真查阅学习了沛县“文学之乡”创建工作资料，深入“书香银行”“校园书房”“煤矿写作社”“歌风书房”“光伏发电文旅基地”等地进行现场观摩学习。濉溪县文联主席毕永杰，作家协会主席梁作成，《濉溪作家》编辑部主任郜芬接受了沛县融媒体中心的采访。', '毕永杰高度赞扬了沛县“中国文学之乡”创建工作：沛县“中国文学之乡”的创建成功，得益于沛县县委、县政府的高度重视和大力支持，得益于沛县文联和作协的精心组织和扎实工作，也得益于沛县坚实的文学基础、创新的文学载体、浓厚的文学氛围、丰富的文学活动。', '毕永杰表示，此次考察，认真系统学习了沛县创建“中国文学之乡”的先进经验，下一步濉溪县将认真借鉴沛县“中国文学之乡”创建的方法和经验，全面查找短板和不足，对照创建条件和标准，锻长板、补短板、强弱项，推动创建工作扎实有效开展，争取尽早创成“中国文学之乡”，为濉溪经济社会建设和文化文艺事业发展做出积极贡献。', '活动中，两县还相互交流赠阅了《大风歌》《歌风诗刊》和《濉溪作家》《红色濉溪》等文学刊物和相关书籍。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>98</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>黄韡带团赴上海市学习考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-07-02</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/bmdt/64501358.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['6月27日至30日，市委常委、县委书记黄韡带团赴上海市学习考察公共服务、社会治理、城市更新、农业产业等方面经验做法，为濉溪高质量发展积蓄新动能。', '代表团先后到上海福寿园，长宁区虹桥街道综合为老服务中心、上生新所、新华路街道社区党群服务中心，崇明区瑞华果园、乾艺农业，奉贤区星辉蔬菜、益民食品一厂，闵行区海鸥养老院等处实地考察学习。黄韡表示，上海市作为国际化大都市，理念新、思路新，创造了许多可复制、可推广的好经验好做法。全县上下要以此次考察学习为契机，全面总结吸收，进一步解放思想、更新理念，把考察学习收获转化为推动濉溪高质量发展的实际行动。', '黄韡指出，要认真学习借鉴上海市构建“功能集约化、运营社会化、服务专业化、管理智能化”的公共服务新特色，聚焦“银发经济”、高端养老，构建以机构为资源支撑、以社区为中间载体、以居家上门服务为补充的“三位一体”养老服务体系，推动公共服务从外延式扩张向内涵式发展转变。', '要认真学习借鉴上海市秉承“留、改、拆”理念，集办公、商业、生活、文化功能于一体的城市更新新做法，依托市县同城优势，以主城区为载体，在城市规划、建设、管理、运营等方面久久为功，打造具有历史记忆和时代特色的濉溪县城。', '要认真学习借鉴上海市整合党建、政务和社会服务等资源，打造开放式、集约化、共享性、枢纽型综合服务平台的社会治理新模式，坚持以群众需求为导向，依托商店、快递点等人流聚集地打造一批基层网格点，丰富健康体检等公共服务职能，打造群众的活动中心、健康小屋。', '要认真学习借鉴上海市依托信息化，推动农产品精深加工业智能化集聚化发展、农文旅融合发展的农业产业化发展新亮点，依托百善现代农业综合开发示范区，外引内培打造农业龙头企业，加快农业产业融合发展，为乡村振兴高质量发展增添新活力、注入新动力。', '县领导葛剑、孙啸、马明、李影、黎秀川，各镇党委书记，县民政局、县卫健委、县建投集团、县农投公司主要负责同志，县农业农村局及园区负责同志分别参加有关活动。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>98</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>市科技局赴上海交通大学学习考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2021-05-31</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://kjj.huaibei.gov.cn/kjcx/cjcxxcs/56637031.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['5月26日至27日，市科技局党组书记、局长王峰一行5人分别赴上海交通大学和上海诺铁资产管理有限公司学习考察，并就推进科技成果转化、深化科技创新合作等内容进行了座谈交流。安徽（淮北）新型煤化工合成材料基地管委会党工委委员、副主任王程俊参见活动。', '在上海交通大学，王峰一行实地参观了材料科学与工程学院科技成果展厅、金属基复合材料国家重点实验室、轻合金精密成型国家工程研究中心等科研基地的科研成果和实物展示 ，听取了氢科学中心氢能源、氢医学、氢农学的科研动态介绍，了解了化学化工学院前沿化学与绿色化工、变革性分子前沿化学中心等标志性成果。考察期间，王峰一行还分别与地方合作办公室、材料科学与工程学院、化学化工学院负责同志、专家教授等就推进陶铝研究院建设管理、市校开展多层次合作、加强科技人才交流培养、推进科技成果项目转化等内容进行了深入探讨和交流。王峰表示，市科技局将进一步开拓科技创新工作服务理念和服务模式，借力上海交大科研资源优势，继续加强产学研对接合作，积极搭建校企合作交流纽带，加快专业人才引进，积极推动新技术、新成果、新产品快速落地淮北，为实现科技成果高效转化、科技助力淮北战略新兴产业发展作出新的贡献。', '5月27日下午，王峰一行专程赶往上海诺铁资产管理有限公司，就加快推进淮北科转基金项目落地等工作，与公司总经理刘振华等人进行了座谈交流，双方将集中更多资源，共同推进基金项目落地见效，精心打造科转基金的城市样板。', '中科（淮北）产业技术研究院举办“知识产权服务工作站启动仪式暨专利保护与布局专题培训会”']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>98</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>萧县考察组来我区考察学习物业管理工作</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2020-06-03</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.hbxs.gov.cn/zwgk/public/145/56605221.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['月28日，萧县考察组一行来相山区考察学习物业管理工作，相山区城管局、区物管服务中心相关领导陪同考察。', '考察组先后实地走访了首府小区、安康社区、家天下小区等现场，听取了有关工作情况介绍，详细了解我区在打造街道社区党组织、执法中心、物业企业、业主委员会“四位一体”的红色物业管理服务平台，发挥业主在小区物业管理中的基础作用。同时，对物业管理服务中好的做法给予高度评价。', '随后，在座谈交流会上，区城管局详细介绍了我区物业管理的基本情况。双方针对老旧小区管理、物业管理等工作进行了经验交流，同时还对物业管理工作中存在的困难交换了意见和看法。考察组认为我区物业管理体制机制健全、管理措施扎实有力，有许多创新性的做法和经验值得学习借鉴。双方均表示将进一步加强沟通交流，推进互通协助，不断推进两地物业管理工作取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>98</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>钱界殊率队到徐州市政协学习考察</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-11-15</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/ldhd/63072386.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['11月13日，市政协主席、市委政法委书记钱界殊率队到徐州市政协学习考察，深化徐淮结对合作交流。徐州市政协主席王强陪同考察。市委常委、统战部部长、市政协党组副书记顾汕竹，市政协副主席张力、朱先明、刘添才、孙兴学、李公峰、董哲、胡守斌，秘书长张红玉参加活动。', '在徐期间，钱界殊一行实地调研徐工消防、精创电气、致能半导体、徐工矿业机械、天科合达、弘元新材料、户部山、园博园等，学习借鉴徐州市加快产业升级、推动文旅融合发展等方面好的经验做法。', '钱界殊表示，徐淮两市山水相连、人文相亲、文化相通，随着徐淮结对合作帮扶走深走实，两地也从“相邻”走向“相融”。两市政协要进一步加强沟通联系、交流合作、互学互鉴，为推动徐淮经济一体化发展贡献更多的政协智慧和力量。', '钱界殊强调，要提高政治站位，深入学习贯彻习近平总书记关于推动长三角一体化发展的重要讲话和重要指示批示精神，以政协工作为纽带，协助党委政府深化徐淮在多层次、多领域的结对合作。要提升合作成效，加快园区合作共建，推动徐州市“343”创新产业集群和淮北市“五群十链”产业深度融合。要广泛凝聚团结奋斗共识，充分发挥政协人才荟萃、智力密集、联系广泛优势，引导广大委员积极参与招商引资、项目建设、文旅产业升级等工作，多谋发展之计、多建睿智之言、多献务实之策，形成推动经济社会高质量发展的强大合力。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>98</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>钱界殊率队到广西学习考察</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-10-30</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/ldhd/63060953.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['10月23日至27日，市政协主席、市委政法委书记钱界殊率队到广西柳州市、南宁市学习考察文旅产业发展，宣传推介淮北，开展招商洽谈。市政协党组副书记、副主席张力，市政协秘书长张红玉参加活动。', '在柳州，钱界殊一行详细了解柳州螺蛳粉产业园、柳工集团、工业博物馆等建设运营和窑埠古镇夜间经济发展情况。在南宁，钱界殊一行实地观摩南宁华数、南南铝业、园博园、城市规划展示馆以及广西民族博物馆等产业布局、文旅发展情况，盛情邀请当地客商来淮投资兴业。', '钱界殊指出，要提高政治站位，深入学习贯彻习近平总书记在柳工集团考察时的重要讲话精神，充分发挥政协人才荟萃、智力密集、联系广泛优势，围绕中心大局，聚焦热点难点，为淮北高质量转型发展建睿智之言、献务实之策。要立足淮北实际，学习柳州以工业化理念发展螺蛳粉特色产业、用小螺蛳粉做出大文章的思路，创新发展模式，加大招商力度，持续优化营商环境，助力食品企业做大做强，推动绿色食品产业高质量发展。要对标对表，充分借鉴柳州工业博物馆先进的建设管理经验，统筹处理好开发与保护的关系，高标准打造淮北工业博物馆，充分挖掘和展示我市独具特色的宝贵工业文化遗产，加快推进筹建、设计、布展等各项工作，将淮北工业博物馆建设成靓丽的城市名片，充分展示我市工业发展的辉煌历程，不断提升城市功能品质活力，为推动文化事业繁荣发展持续贡献力量。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>98</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>濉溪县供销社赴萧县考察学习</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-10-12</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.sxx.gov.cn/zwgk/public/1961/63043041.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['为进一步推动濉溪县供销系统的综合改革，党建引领合作社的发展，不断提升和强化供销社为农服务职能，10月11日，濉溪县供销社党组书记、理事会主任梁煜带领业务科室一行4人赴萧县调研学习党建引领合作社发展、农业社会化服务工作开展的成功经验，萧县供销社理事会主任李兴振及相关成员陪同调研。', '调研组一行先后来到萧县福瑞泽供销社为农服务中心、丁里镇胜利社区、萧县金穗农民专业合作社为农服务中心等地实地考察村党组织领办合作社的发展方式，以及为农服务组织通过与村集体的紧密合作，推动农业社会化服务、壮大村集体经济收入、助农增收的成功经验。并通过座谈会的方式与各镇村干部、为农服务主体进行进一步的学习交流和探讨。', '梁煜表示，此次赴萧县调研，收获巨大，通过实地调研取真经，深刻的学习到萧县在推动党建引领合作社发展的成功经验。濉溪县供销社将学习借鉴其成功做法，并结合濉溪实际情况，积极探索党建引领合作社发展新思路，以此不断推动濉溪供销工作的改革与发展、加强基层组织建设、提升为农服务能力和水平、壮大村集体经济收入，在乡村振兴中发挥“供销”力量。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>98</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>淮北市审计局赴南通上海考察学习</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://sjj.huaibei.gov.cn/zwgk/public/66/63015619.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['近日，淮北市审计局党组成员、副局长葛雪梅带队，一行7人赴江苏省南通市、上海市杨浦区审计局开展考察学习活动，分别与两地审计局开展座谈交流。', '南通市审计局总审计师及电子数据审计处、固定资产投资审计处、法规审理处负责同志详细介绍了审计信息化建设情况、数据分析人才培养情况、工程投资项目情况，考察组现场参观了数据分析室，重点考察学习了智慧审计资源管理平台的建设过程，进一步了解审计对象库管理、整改挂销号管理、审计分析管理、业务数据采集等功能，学习吸收先进经验。', '杨浦区审计局党组书记、局长及财政金融审计科、固定资产投资审计科负责同志分别介绍了单位基本情况、大数据审计在预算执行与财政收支审计中的应用、数据采集机制、投资审计制度修订情况。座谈过程中，双方就推动大数据审计发展的难点、投资审计转型发展中的措施进行深入交流研讨。考察组实地查看了投资项目现场，学习发挥投资绩效的先进做法。', '下一步，市审计局将深入学习借鉴先进地区的创新做法，持续推进审计信息化建设，不断提升大数据审计水平，加强投资绩效管理，推动审计工作高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>98</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>刘辉率队到长三角地区开展学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://hbjy.huaibei.gov.cn/zwgk/public/19/63036169.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['为积极开展“思想大解放”，围绕践行“五大”要求、“六破六立”大讨论活动要求，对标长三角地区先进理念，9月13日至16日，淮北市教育局党组书记、局长刘辉率队到芜湖、常州、滁州等地学习考察教育工作先进经验做法。局领导马良、王月辉等参加活动。', '在芜湖市教育局举行的座谈会上，芜湖市教育局介绍了义务教育优质均衡先行创建区经验做法、德智体美劳“五大行动”省级试验区的创建经验和做法、义务教育学校管理体制改革情况、教师职称评定等经验做法，芜湖十二中介绍了航空实验班等特色办学情况。在芜湖一中教育集团弋江小学，考察组详细了解该校在集团化办学、合作办学、办学模式、教育教学管理等方面的实践与探索。', '在常州市，考察组实地考察了常州旅游商贸高等职业技术学校、常州市第二十四中学、常州市第一中学，深入了解常州市职业教育产教融合、义务教育管理体制改革、新高考改革等的先进经验和做法，听取学校在德育、作业设计和管理、考试评价、拔尖创新人才培养等方面的开展情况。', '在滁州市教体局和苏滁实验学校、滁州市应用技术学校、全椒县第四中学，考察组重点了解了党组织领导的校长负责制、合作办学和集团化办学、教师编制周转及选调工作、教师职称评定等的先进经验和做法，就两地教育现状、面临困难和发展前景等深入交换了意见。', '在学习考察过程中，刘辉向各地教育主管部门和学校介绍了我市教育事业发展的有关情况，欢迎大家到淮北调研指导。他表示，各地教育主管部门和学校有很多共同面对的思考与实践，此次学习考察实现了“走出去、取真经、破难题”的预期目标，学习了长三角先进地区教育经验和创新思路、举措、方法和成果，为淮北教育事业再上新台阶提供了较强的指导价值和借鉴意义，淮北教育将更好地融入长三角教育一体化，加速推进协同创新、协同发展。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>98</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>淮北市医保局赴徐州市开展考察学习</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://ybj.huaibei.gov.cn/zwgk/public/7201/64467120.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['4月18日下午，市医保局党组书记、局长郜锦华带队就徐淮两地医保协同发展赴徐州市医保局开展考察学习，详细了解医保基金监管、支付方式改革、经办管理服务方面的好经验、好做法，探索两地医保协同发展的有效路径。徐州市医保局党组书记、局长杨晶和相关处室负责人陪同考察并座谈。', '考察组一行先后参观了徐州市医保经办服务大厅、医保智能监控视频中心和智能监控数据中心，详细观看了视频监控系统、医保智能监管和数据挖掘系统的操作演示，了解系统运行情况和监管流程。', '座谈会上，徐州市医保局详细介绍了DRG监管情况、医保“高效办成一件事”事项落实情况以及经办管理服务智能化、标准化、规范化情况。双方就医保跨省异地就医基金监管协同联查、紧密型城市医疗集团建设、双通道药品管理以及门诊统筹基金监管等方面的工作进行了深入交流和探讨。', '下一步，市医保局将认真学习借鉴徐州经验，积极转化、快速吸收，持续强化协作配合，积极推动徐淮两地医保协同发展，努力为参保群众提供更加优质、高效的医保服务。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>98</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>市科技局考察学习中试基地建设</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://kjj.huaibei.gov.cn/kjgz/xqkj/57759018.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['4月17至19日，市科技局党组成员、副局长杨体忠一行6人赴浙江衢州、绍兴上虞等地考察学习研究院和中试基地建设。临涣化工园区有关部门负责人、相润投资控股集团淮北润土高分子新材料研究院负责人等参加活动。', '在浙大衢州“两院”（浙江大学工程师学院衢州分院和浙江大学衢州研究院），杨体忠一行参观了中试实验实训基地展厅和实物仿真实训平台。座谈会上，杨体忠等介绍了淮北市煤化工基地及新材料产业情况、建设中试基地的规划、思路等，双方详细交流了化工项目中试基地建设和运营管理过程中的注意事项，就化工中试基地建设及运营管理、项目孵化准入准出机制等进行深入探讨。', '在中国科学院控股有限公司新材料创新基地，杨体忠一行先后到科技成果展厅、中试生产车间、中控管理大楼等参观，深入了解中试创新基地建设模式、创新孵化机制、成果转化成效等情况，座谈会上，双方探讨了中试项目入园流程、运行成本、配套工程、对外服务合作模式等实操细节。', '杨体忠指出，中试是实验室试验成功后、工业化量产前，为验证工艺的可行性、稳定性和安全性，探索解决工业化规模生产关键技术而进行的工艺技术开发和验证活动。衢州、绍兴等地中试基地的创新模式为淮北推进科创加速器建设提供了有益的借鉴和参考。今后将持续加强与衢州研究院、中科院新材料创新基地的沟通交流，共推科技成果转化，加速科技成果产业化落地，助力两地产业高质量发展，并结合我市新材料产业发展实际，探索形成适合我市的中试基地建设方案，形成“基础研究—技术攻关—技术应用—成果产业化”全过程创新链。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>98</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>安庆市建管处来淮考察学习</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://hbzjj.huaibei.gov.cn/xwzx/zxzx/57741922.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['3月5日-6日，安庆市建管处主任孙强一行至市建管处学习住宅工程业主开放日活动先进经验，市建管处处长谢传峰及处相关业务科室陪同座谈交流。 座谈会上，双方围绕业主开放日活动组织方式开放阶段、工程质量安全、消防施工监管，如何规范建筑市场的合同管理及农民工工资管理等方面工作机制、经验做法进行交流，并对住宅室外配套工程管理和工程量差异化信息化管理进行探讨。', '3月6日上午，市建管处陪同安庆市建管处一行实地观摩了装配式建筑中湖明月7组团项目，详细了解，一路探讨。同时市建管处对已竣工交付使用的中湖明月8组进行质量“回头看”，切实加强全市建筑工程质量管理，落实责任单位的保修义务，减少质量投诉，提高用户满意度。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>98</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>方宗泽率队到马鞍山市考察学习</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/ldhd/63075516.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['近日，市人大常委会主任方宗泽率队到马鞍山市考察学习，深入了解该市经济社会发展情况。市人大常委会副主任张香娥参加考察学习。', '方宗泽一行深入马鞍山经济技术开发区，参观蒙牛乳业（马鞍山）有限公司、蓝黛传动机械有限公司、东科半导体（安徽）股份有限公司，围绕开发区承载能力建设、百亿企业培育等主题与有关负责同志进行座谈交流。', '方宗泽对马鞍山市建强科创平台载体、推动产业集群发展、深化“亩均效益评价”和“标准地”改革、开展“七未”项目集中攻坚行动、优化营商环境等经验做法给予高度评价。他指出，要认真研究吸纳马鞍山市产业转型、招大引强、改革创新等方面的有益经验，并以此次考察学习为契机，进一步加强沟通交流、互学互鉴，共同促进地方经济社会高质量发展。', '方宗泽一行还前往薛家洼生态园、滨江湿地公园、芦苇江湾，实地考察长江马鞍山段东岸生态环境综合整治情况。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>98</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>顾汕竹率队赴沪浙考察学习</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/ldhd/62998564.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['8月23日至25日，市委常委、统战部部长顾汕竹率队前往浙江台州、慈溪和上海青浦考察学习统战工作先进经验。', '顾汕竹一行详细了解当地的历史人文和经济社会发展情况，先后到台州市横街镇和螺洋街道同心之家、华章村乡贤馆、民营经济展示中心，慈溪市环创中心同心之家、环杭州湾创新产业园，上海青浦区北斗西虹桥基地、长三角留创园等地，深入学习两省三地完善大统战工作格局、加强统战阵地建设、服务民营经济、促进创业创新等方面的工作经验，并就加强交流合作，促进共同发展进行深入探讨。', '顾汕竹表示，要深入学习借鉴沪浙三地统战工作的创新性做法和举措，坚持扬长补短，解放思想、实事求是，拉高标杆、争先进位，为加快建设“五宜”幸福城市贡献更多统战力量。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>98</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>吴振禹带队赴衢州智造新城考察学习</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://hbmhg.huaibei.gov.cn/xxfb/yqdt/57689592.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['为扎实开展围绕“五大”要求、“六破六立”大讨论活动，学习借鉴长三角先进化工园区建设及日常管理运营等方面的先进经验，进一步加强交流合作，8月23-25日，淮北煤化工基地党工委委员、副主任吴振禹带队赴浙江省衢州智造新城学习考察交流。', '在衢州智造新城，考察组一行实地参观了衢州制造新城展示中心、衢州制造新城高新技术产业开发区智慧应急指挥平台建设、巨化集团科创中心展示厅等。在座谈会上，双方围绕人事制度改革、在建项目管理、园区封闭运行、智慧园区平台信息化建设等方面开展深入交流。', '煤化工基地将以此次考察为契机，学经验、找差距、谋发展，将“他山之石”转化为对各项工作的启发，努力推动煤化工基地经济实现高质量跨越式发展。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>98</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>寿县乡村振兴局一行来濉溪考察学习</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.sxx.gov.cn/xwzx/bmdt/60849899.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['为加强工作交流、经验互学，7月27日，寿县乡村振兴局一行到我县考察学习巩固拓展脱贫攻坚成果同乡村振兴有效衔接相关工作。局党组成员、副局长胡朝利陪同交流。', '座谈交流会上，我县乡村振兴局介绍了有关全国防止返贫监测和衔接推进乡村振兴信息系统数据质量筛查工作经验做法，并就数据筛查进行了实例演示。', '考察组对我县在数据质量筛查等方面取得的成绩给予了高度评价，认为我县在推动巩固脱贫攻坚成果和乡村振兴中有许多好经验、好做法值得借鉴学习。希望双方今后继续加强交流合作，探索形成更具特色的乡村振兴模式和经验，共同推动两地乡村振兴工作取得更好的成效。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>98</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>市地方金融监管局赴湖州学习考察</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-07-20</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/bmdt/62974846.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['7月18日至7月20日，市地方金融监督管理局党组书记、局长王海燕带队赴湖州市金融办学习考察，双方就金融顾问机制、绿色金融、政府性融资担保体系及企业上市等方面的相关做法进行了深入探讨。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>98</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>市乡村振兴局组织赴萧县学习考察</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-07-19</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/bmdt/62966812.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['7月18日，市乡村振兴局组织业务骨干赴萧县学习考察，学习借鉴产业就业帮扶、积分制、防返贫动态监测帮扶工作先进经验做法。', '考察组一行先后实地参观萧县白土镇张村现代农业示范园、杨楼镇新廷社区、黄口镇乡村振兴产业基地。在各学习点，考察人员认真听取经验介绍，深入探讨交流，对标主动寻找差距，通过“取经问道”，理清思路、加压提升。', '在全国乡村治理示范村、省乡村振兴示范村—杨楼镇新廷社区，考察组实地参观社区党建引领、乡村治理等情况，并同社区干部围绕做好党组织领办合作社助推村集体、村民“双增收”，作深入座谈交流。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>98</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>杜集区石台镇赴徐州市学习考察</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.hbdj.gov.cn/xwzx/jckx/60854915.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['围绕“五大”要求、“六破六立”大讨论活动，9月15日，杜集区人大常委会党组副书记、副主任、石台镇党委书记纵海燕带队，围绕矛盾纠纷多元化解、乡村振兴等，先后赴徐州市濉宁县、贾汪区学习考察。', '纵海燕一行实地考察了睢宁县社会治理综合服务中心和睢宁街道社会治理中心，对睢宁县“线上诉求一平台+线下问需一张网+现场服务一中心”的善治模式，按照“全科门诊”定位，全面整合人大、政协、公、检、法、司、信访、妇联等部门和“12345”、“速来办”、网格化、综合执法等平台资源，开展数据分析研判、监测预警、指挥调度、执法监督、督察督办，构建“用数据说话、用数据决策、用数据服务、用数据创新”的现代化治理模式给与高度评价。在贾汪区马庄村，参观了马庄村史馆和“小香包”制作车间，学习马庄的发展思路和推动乡村振兴的有效做法。', '纵海燕一行带着问题看，针对短板学。面对面学习取经，进行深入交流研讨，吸收先进经验，拓宽工作思路。通过调研和讨论，进一步解放思想、转变观念，凝聚共识、汇聚力量。并将结合学习、考察情况，立足石台镇实际，持续深入开展集中研讨，形成解决问题、促进工作的思路办法和政策措施，做好结合转化文章，奋力推动现代化美好石台建设。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>98</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>习近平在北京育英学校考察</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/dzy/62936778.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在科学教室同小学生们亲切交流。新华社记者 王晔 摄', '新华社北京5月31日电 在“六一”国际儿童节到来之际，中共中央总书记、国家主席、中央军委主席习近平5月31日上午来到北京育英学校，看望慰问师生，向全国广大少年儿童祝贺节日。习近平强调，少年儿童是祖国的未来，是中华民族的希望。新时代中国儿童应该是有志向、有梦想，爱学习、爱劳动，懂感恩、懂友善，敢创新、敢奋斗，德智体美劳全面发展的好儿童。希望同学们立志为强国建设、民族复兴而读书，不负家长期望，不负党和人民期待。', '中共中央政治局常委、中央办公厅主任蔡奇，中共中央政治局常委、国务院副总理丁薛祥陪同考察。', '北京育英学校1948年创办于河北西柏坡，前身为“中共中央直属机关供给部育英小学校”。75年来，学校在老一辈革命家关心关怀下，全面贯彻党的教育方针，落实立德树人根本任务，推行学制创新，开展特色办学，引领学生德智体美劳全面发展。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在校史馆考察。新华社记者 鞠鹏 摄', '习近平来到学校，首先走进校史馆，了解学校历史沿革、建设发展和近年来推动教育教学改革创新、落实“双减”政策要求、促进学生德智体美劳全面发展等情况。习近平指出，教育的根本任务是立德树人，培养德智体美劳全面发展的社会主义建设者和接班人。学生的理想信念、道德品质、知识智力、身体和心理素质等各方面的培养缺一不可。“双减”政策落地有一个过程，要久久为功。要引导家长、学校、社会等各方面提高认识，推动落实好“双减”工作要求，促进学生全面发展。育英学校具有光荣的革命传统和鲜明的红色基因。要加强革命传统教育，让每一位育英学校的学生牢记学校的光荣历史，铭记党的关怀，赓续红色传统，传承红色基因，从小听党话、跟党走，立志为党成才、为国奉献。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在篮球场同正在上体育课的小学生们亲切交流。新华社记者 申宏 摄', '习近平步行察看校园环境。篮球场上学生们正在打篮球、跳绳，上体育课。习近平指出，提高人的健康素质，青少年是黄金期。这个阶段，长身体是第一位的，身体好了，才能为今后一生的学习工作打好基础。体育锻炼是增强少年儿童体质最有效的手段。现在生活条件好了，孩子们不是要吃得胖胖的，而是要长得壮壮的、练得棒棒的。体育锻炼要从小抓起，体育锻炼多一些，“小胖墩”、“小眼镜”就少一些。学校要把体育老师配齐配好，家庭、学校、社会等各方面都要为少年儿童增强体魄创造条件。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在篮球场向正在上体育课的小学生们挥手致意。新华社记者 鞠鹏 摄', '随后，习近平来到学生农场。这里是学生开展农业种植活动的实践场所，阳光下、田垄上，一排排绿油油的菜苗生机勃勃。孩子们拿着水桶、铲子、耙子、毛笔，为西红柿、黄瓜等浇水、松土、除草、授粉。习近平强调，很多知识和道理都来自劳动、来自生活。引导孩子们从小树立劳动观念，培养劳动习惯，提高劳动能力，有利于他们更好地学习知识。现在一些城里的孩子接触农村、接触大自然少，不光“四体不勤”，而且“五谷不分”，对吃的是什么、从哪里来的、怎么来的都不知道，更体会不到“谁知盘中餐，粒粒皆辛苦”。他对同学们说，认识大自然，首先要从认识身边的植物开始。同学们栽培的各种植物，虽然书本上都有介绍，但大家亲手种、亲自培育、跟踪观察，收获肯定是不一样的。希望同学们从“学农”中感受到农作的艰辛和农民的不易，从小养成热爱劳动、珍爱粮食、尊重自然的良好习惯，为建设美丽中国作贡献。新时代生态文明建设要从娃娃抓起，通过生动活泼的劳动体验课程，让孩子亲自动手、亲身体验、自我感悟，让“绿水青山就是金山银山”的理念早早植入孩子的心灵。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在学生农场同正在进行农业种植实践的小学生们亲切交流。新华社记者 鞠鹏 摄', '学校思聪楼二层科学教室不时传出欢声笑语，习近平走进教室，师生们告诉总书记，他们正在运用所学的直线运动、曲线运动、斜面运动等知识，用积木动手设计搭建过山车模型进行验证。习近平指出，科学实验课，是培养孩子们科学思维、探索未知兴趣和创新意识的有效方式。希望同学们从小树立“科技创新、强国有我”的志向，当下勇当小科学家，未来争当大科学家，为实现我国高水平科技自立自强作贡献。', '习近平随后来到五年级教师办公室，看望正在研讨备课的老师们，询问课后服务课程结构设置等情况。习近平指出，中国特色社会主义教育体系是好的，我国的基础教育在世界上是有优势的，要坚定文化自信，把自己好的东西坚持好，把国外好的东西借鉴好，与时俱进、开放发展，让孩子们有更广阔的眼界、更开阔的思路、更开放的观念，努力培养堪当民族复兴重任、勇于创造世界奇迹的国之栋梁。习近平强调，人才培养，关键在教师。广大教师要牢记为党育人、为国育才的初心使命，以人民教育家为榜样，以德立身、以德立学、以德施教。要在全社会营造尊师重教的良好风尚，让教师成为最受社会尊重和令人羡慕的职业，努力形成优秀人才争相从教、优秀教师不断涌现的良好局面。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在教师办公室同教师们亲切交流。新华社记者 申宏 摄', '在学校小广场上，师生们热情欢送总书记。习近平祝愿孩子们茁壮成长、健康成才，并向全国广大少年儿童祝贺“六一”国际儿童节快乐。他说，今天我专程来北京育英学校看望大家，和小朋友们共庆“六一”儿童节。看到同学们天真活泼、朝气蓬勃，脸上洋溢着幸福的笑容，感到非常高兴。党中央始终关心关怀少年儿童的健康成长，采取了一系列政策举措，努力为孩子们健康成长创造更好环境。我相信，有中国共产党的领导和社会主义制度的显著优势，生活在中华民族大家庭里的各族儿童一定会越来越幸福，一定会拥有更加美好的未来。各级党委和政府、社会各方面要切实做好与儿童事业发展有关的各项工作，关心帮助困难家庭的孩子特别是孤儿和残疾儿童，让所有孩子都能感受到党和政府的温暖，都能有一个幸福美好的童年。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在学校小广场同师生们亲切交流。新华社记者 鞠鹏 摄', '习近平对同学们说，今天的少年儿童是强国建设、民族复兴伟业的接班人和未来主力军。为在本世纪中叶把我国全面建成社会主义现代化强国，现在是我们这一代人在努力奋斗，未来要靠你们去接续奋斗。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>98</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>淮北市军供站考察学习徐州市军供站</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-05-18</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://tyjrj.huaibei.gov.cn/xw/sygz/57589775.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['为进一步加强军供区域协作工作，探讨提升军供服务保障新思路新方法。5月11日，淮北市退役军人事务局党组成员、副局长朱良光带领淮北市军供站有关人员到徐州市军供站进行考察学习。', '考察组一行先后参观了徐州市军供站、作战指挥室、野战炊事车等，并就如何提升新时期下军供野外应急保障能力进行了深入研讨。通过互学互鉴，携手协作，共同促进区域军供保障科学化、精细化，不断提升军供保障水平，推进新时代军供保障工作高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>98</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>市地方金融监管局赴铜陵学习考察</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/bmdt/62890218.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['为学习借鉴优秀地市先进经验，更好地开展我市金融服务实体经济工作，4月14日至15日，市地方金融监管局党组书记、局长王海燕带领部分科室负责同志专程赴铜陵学习考察，本次考察与铜陵市金融局负责人采取互动式交流座谈并参观调研辖区内优秀上市公司，充分了解先进地市金融工作全面情况。', '考察组一行与铜陵市地方金融监管局围绕信贷投放、担保体制建设、推动企业上市等工作的开展情况和经验做法进行深入交流。详细了解了铜陵市在政策引导、部门联动、机构对接等方面的地方特色金融服务模式。会后，实地走访了安徽耐科装备科技股份有限公司，详细了解了该上市企业的经营情况、经营模式和规范公司治理方面的经验做法。', '下一步，市地方金融监管局将与铜陵市加强沟通交流，积极借鉴兄弟城市的先进经验和做法，大力营造我市良好的金融生态环境，助力企业实现高质量发展。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>98</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>市商务局赴临沂考察学习现代物流业</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/bmdt/62921589.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['为贯彻落实市领导指示批示精神，学习临沂市发展现代物流业方面的先进经验，推动淮北市现代物流业高质量发展。5月5日，市商务局会同市交通控股有限责任公司一行赴临沂市、平邑县对现代物流业发展情况进行考察。淮北市商务局党组成员、市商贸市场建设和物流业发展服务中心主任代宏军、市交通控股有限责任公司董事长苗中治参加考察。', '考察团先后前往临沂商城展览馆、天源国际物流园、京东云仓（平邑）、平邑数智物流产业园等地，结合我市物流业发展实际，针对物流业发展的基本情况，物流园区的建设情况、物流业信息化和物流技术的应用情况等，与临沂商城管委会负责人和物流园负责人展开深入交流，虚心学习其先进经验和做法。', '考察团成员一致认为临沂现代物流业的健康发展，离不开政府的引导扶持和良好的政策环境，离不开物流园区建设的创新模式、商贸物流的一体化运作、制造企业的联动发展、电子商务的普及应用等先进做法。我市要充分把握现有资源和区位优势，把先进经验运用好，抢抓属于淮北的物流发展机遇，推动淮北市物流业实现全面发展壮大。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>98</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>淮北市救助站赴滨州市考察学习</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-02-17</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://mzj.huaibei.gov.cn/xxfb/gzdt/57525321.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['考察组一行参观了救助大厅，党建联盟文化阵地、寻亲工作室及社工共建基地等，认真听取了“党建+救助”、“2+4+4”源头治理及“救助+社工”的经验介绍。座谈会上，双方就救助管理机构标准化建设、社会化寻亲、区域一体化救助管理机制、源头治理、档案管理等工作进行了深入的交流，重点分享了特殊受助人员寻亲方面的先进做法和典型案例。', '下一步，我站将充分借鉴考察成果，以“基层党组织建设规范提升年”专项行动为契机，擦亮“温情救助 让爱回家”党建品牌，全面提升为困难群众办实事的工作能力和服务效力，让弱有所扶更温情、更温馨，用高质量党建为救助工作高质量发展领航赋能。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>98</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>陈言超率队赴马鞍山市学习考察</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-10-11</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://gxj.huaibei.gov.cn/zwgk/public/23/62220051.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['为学习马鞍山市铸造产能综合评价、调剂使用、管理政策措施和先进经验做法，加快推动我市铸造产业高质量发展，10月9日，市经信局党组成员、副局长、二级调研员陈言超率队赴马鞍山市学习考察。杜集区政府副区长李涛，市经信局技改科及濉溪县经信局、杜集区经信局相关负责人员参加考察活动。', '9日上午，马鞍山市经信局副局长万瑞及综合法规科、科技与装备科负责同志向考察组一行介绍了当前马鞍山市铸造产业发展情况以及《马鞍山市铸造产能综合评价办法（试行）》、《马鞍山市铸造产能调剂方案（试行）》等政策文件出台及实施情况。双方就铸造产能置换、市场化交易等方面问题进行了深入交流和探讨。', '9日下午，考察组一行前往含山县实地参观了部分先进铸造企业。每到一处，考察组成员认真听、仔细看，边观摩、边交流，在学习中开拓视野，在交流中启迪思路，在对比中找准差距。实地调研结束后，含山县政府副县长方元及含山县经信局、发改委相关负责同志进行了工作座谈。', '陈言超表示，通过这次考察，学习到了兄弟市县铸造产业高质量发展的先进经验做法，切身感受到了兄弟市县铸造产业高质量发展的蓬勃活力和强劲势头，深有感触、深受启发，进一步解放了思想、开阔了眼界、拓宽了思路，也深刻意识到淮北市铸造产业转型提升的重要性和紧迫性。淮北市经信部门将以此次考察为契机，切实转变理念，坚定信心决心，聚焦目标任务，真抓实干，务求实效，促进淮北市铸造产业高质量发展再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>98</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>朱龙带队赴砀山县学习考察</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-05-25</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.hbxs.gov.cn/xwzx/xsyw/60842658.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['5月23日上午，区委书记朱龙带队赴砀山县学习考察。砀山县委书记唐明陪同考察。砀山县领导沈慧星、李民峰，市交通运输局党组成员、总工程师蒋卫，区领导刘安顺参加活动。', '朱龙一行先后考察了良梨镇数字果园、魏寨民宿、迈瑞医疗科技产业园、安徽壹度品牌运营股份有限公司等地，高度评价了砀山县加速崛起取得的巨大成就，一致表示要深入学习借鉴砀山县推动产业发展和绿色发展的经验做法，不断提升发展质效，为现代化美好相山建设提供更加坚实的支撑。', '朱龙对砀山县的热情接待表示感谢。他说，砀山和相山是毗邻的兄弟县区，有着相同的区位优势，都面临着长三角一体化和皖北新型工业化城镇化等发展机遇，有着广阔的合作空间。希望两地能够抢抓机遇，持续深化招商引资、企业交流，加强乡村振兴、交通、物流等领域合作，共同推动连通两地的G237国道提质改造，促进人才、市场、经验等在两地之间交流融通，不断增进友谊，实现合作共赢。', '唐明对朱龙一行的到来表示欢迎。他说，近年来，在相山区委的坚强领导下，相山区敢为善为、务实落实，在推进经济社会发展上取得了令人瞩目的成绩。希望两地加强沟通对接，携手砥砺奋进，在更高水平、更宽领域、更深层次加强合作，共同开创两地高质量发展的美好明天。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>98</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>市数据资源管理局赴芜湖市考察学习</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022-09-19</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/bmdt/62290021.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['9月15日上午，市数据资源管理局局长丁涛率队一行5人赴芜湖市数据资源管理局考察学习。', '丁涛一行先后考察自贸区芜湖片区综合服务大厅、市政务服务大厅，详细了解政务（企业）服务中心建设，实地查看服务大厅功能区划设置。随后来到芜湖市城市运行管理中心，听取芜湖市智慧城市建设、城市大脑建设、惠企政策网上超市建设等情况汇报，双方就“一网统管”、“城市大脑”、“免审即享”等若干问题进行深入交流，积极交换了意见。丁涛同志对芜湖市数据资源管理局近年来取得的优异成绩及芜湖市在智慧城市建设、政服务服领域改革创新表示赞赏。双方一致表示，在今后的工作中要加强在城市大脑、“一网统管”、政服务服领域等方面的交流学习，多措并举开展沟通合作、分享工作经验。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>98</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>市高新区管委会来我局考察学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2022-09-16</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://sjzy.huaibei.gov.cn/zwgk/public/340/62524441.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['9月15日，淮北市高新区管委会经济发展局副局长高丹青一行4人来我局考察学习，市政务服务中心主任李磊接待了考察组。', '李磊重点介绍中心建设情况，包括中心的总体思路、管理机制和激励约束机制。座谈会上大家就窗口设置、企业开办和工程建设项目建设等方面进行深入交流。', '考察人员表示十分感谢我局的经验介绍，希望今后加强与我局的沟通交流，共同推动服务大厅的建设，提升为民服务质量。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>98</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>顾汕竹率队到徐州学习考察</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2022-08-17</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://zhaoshang.huaibei.gov.cn/zszx/zsyw/57272361.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['近日，市委常委、统战部长顾汕竹率队前往江苏省徐州市，学习考察统一战线工作的先进做法和创新经验，共商协作事宜，共谋两地发展。徐州市委常委、统战部长毕于瑞陪同考察。', '顾汕竹一行考察了徐州国家安全科技产业园、新的社会阶层实践创新基地淮派玉雕研究院、民革党员之家、宗教活动场所等，学习借鉴民营企业科技创新赋能发展、城市少数民族人口服务管理、塑造特色实践品牌等方面的好经验和好做法。', '毕于瑞对我市一行表示欢迎，并介绍了徐州经济社会发展情况和统一战线各领域工作的亮点和成绩。', '顾汕竹表示，徐淮两市比邻而居，人文相近、文化相通、经济相融，同属丝绸之路经济带、长江经济带、淮河生态经济带，以及长三角一体化发展、淮海经济区协同发展等国家战略叠加区域，同负更高质量转型发展的时代使命。希望以此次活动为契机，建立互访工作机制，创造条件推进宗教事务、民营经济等重点领域合作交流，搭建徐淮统战工作全域合作新平台，打造省际毗邻地区对接合作新样板，不断开创两地协同发展新局面。', '相山区委书记朱龙率队赴上海、杭州等地开展招商考察活动，走访战略合作伙伴和G60科创走廊']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>98</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>辽宁省营商环境建设局来淮考察学习</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://sjzy.huaibei.gov.cn/xwzx/zxxx/57286371.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['8月25日，辽宁省营商环境建设局政务服务处处长程绍利率队一行9人来淮进行学习考察。', '程绍利一行先后参观了相山区政务服务中心、市政务服务中心，听取了有关负责人关于营商环境政务服务领域工作介绍，并在市、区服务大厅现场实地考察学习，在政务公开专区亲自操作，在工程项目建设专区详细了解办事流程。随后的座谈会上双方就“政务公开+政务服务”深度融合、免申即享、政务服务平台建设等若干问题进行了深入交流，积极交换了意见，考察团一行对我市政务服务工作给予肯定。双方会后纷纷表示要进一步加强两地在政务服务、营商环境领域的交流学习，在日后工作中多开展沟通合作、分享工作经验。', '市第十七届人大常委会第五次会议闭幕决定接受覃卫国辞去市人民政府市长职务的请求决定任命汪华东为市人民政府副市长决定汪华东为市人民政府代理市长决定任命姚珂为市人民政府副市长决定免去高维民市人民政府副市长职务覃卫国出席会议并讲话方宗泽主持会议']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>98</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>习近平在中国人民大学考察</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2022-04-26</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/dzy/61526661.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['新华社北京4月25日电 在五四青年节即将到来之际，中共中央总书记、国家主席、中央军委主席习近平25日上午来到中国人民大学考察调研。习近平代表党中央，向全国各族青年致以节日的祝贺，向中国人民大学全体师生员工、向全国广大教育工作者和青年工作者致以诚挚的问候。习近平希望全国广大青年牢记党的教诲，立志民族复兴，不负韶华，不负时代，不负人民，在青春的赛道上奋力奔跑，争取跑出当代青年的最好成绩！', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在立德楼观摩思政课智慧教室现场教学并参与讨论。新华社记者 鞠鹏 摄', '习近平强调，“为谁培养人、培养什么人、怎样培养人”始终是教育的根本问题。要坚持党的领导，坚持马克思主义指导地位，坚持为党和人民事业服务，落实立德树人根本任务，传承红色基因，扎根中国大地办大学，走出一条建设中国特色、世界一流大学的新路。广大青年要做社会主义核心价值观的坚定信仰者、积极传播者、模范践行者，向英雄学习、向前辈学习、向榜样学习，争做堪当民族复兴重任的时代新人，在实现中华民族伟大复兴的时代洪流中踔厉奋发、勇毅前进。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平同师生代表座谈并发表重要讲话。新华社记者 谢环驰 摄', '中国人民大学是中国共产党创办的第一所新型正规大学，前身是1937年诞生于抗日战争烽火中的陕北公学，以及后来的华北联合大学和北方大学、华北大学，在长期的办学实践中，注重人文社会科学高等教育和马克思主义教学与研究，被誉为“我国人文社会科学高等教育领域的一面旗帜”。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平向师生们挥手致意。新华社记者 谢环驰 摄', '上午9时20分许，习近平在中国人民大学党委书记张东刚、校长刘伟陪同下，首先来到立德楼，观摩思政课智慧教室现场教学。习近平同青年学生一起就座，认真倾听并参与讨论，对学校立足自身优势，不断推进思政课教学改革创新，打造高精尖水平思政课的做法表示肯定。他强调，思想政治理论课能否在立德树人中发挥应有作用，关键看重视不重视、适应不适应、做得好不好。思政课的本质是讲道理，要注重方式方法，把道理讲深、讲透、讲活，老师要用心教，学生要用心悟，达到沟通心灵、启智润心、激扬斗志。青少年思想政治教育是一个接续的过程，要针对青少年成长的不同阶段，有针对性地开展思想政治教育。希望人民大学绵绵用力，久久为功，止于至善，为全国大中小学思政课教学提供更多“金课”。也鼓励各地高校积极开展与中小学思政课共建，共同推动大中小学思政课一体化建设。习近平勉励同学们坚定中国特色社会主义道路自信、理论自信、制度自信、文化自信，在全面建设社会主义现代化国家新征程中勇当开路先锋、争当事业闯将。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在立德楼观摩思政课智慧教室现场教学并参与讨论。新华社记者 燕雁 摄', '中国人民大学校史展设立于学校博物馆内。习近平来到这里，详细了解学校历史沿革、建设发展和近年来教学科研成果等情况。习近平强调，中国人民大学在抗日烽火中诞生，在党的关怀下发展壮大，具有光荣的革命传统和鲜明的红色基因。一定要把这一光荣传统和红色基因传承好，守好党的这块重要阵地。要加强校史资料的挖掘、整理和研究，讲好中国共产党的故事，讲好党创办人民大学的故事，激励广大师生继承优良传统，赓续红色血脉。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在博物馆了解学校近年来教学科研成果等情况。新华社记者 谢环驰 摄', '在博物馆门前广场上，习近平看望了老教授、老专家和中青年骨干教师代表，并同他们亲切交谈。看到老教授、老专家身体健康、精神矍铄，习近平非常高兴。他指出，中国人民大学历来是人才荟萃、名家云集的地方。老教授、老专家们为党的教育事业付出了巨大心血，作出了重要贡献。希望中青年教师向老教授老专家学习，立志成为大先生，在教书育人和科研创新上不断创造新业绩。习近平强调，建设世界一流的中国特色社会主义大学，培养社会主义建设者和接班人，必须有世界一流的大师。要高度重视教师队伍建设，特别是要加强中青年教师骨干的培养，把人民大学打造成为我国人文社会科学研究和教学领域的重要人才中心和创新高地。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在博物馆门前广场上，同老教授、老专家和中青年骨干教师代表亲切交谈。新华社记者 谢环驰 摄', '中国人民大学图书馆以人文社会科学学术性文献馆藏为主，有藏书410余万册。习近平来到这里，考察馆藏红色文献、古籍集中展示，察看现代化检索平台和复印报刊资料等数字化学术资源，听取学校加强文献古籍保护利用，促进理论研究成果转化应用等情况介绍。习近平强调，人民大学馆藏红色文献，鉴证了我们党创办正规高等教育的艰辛历程，是十分宝贵的红色记忆，要精心保护好，逐步推进数字化，让更多的人受到教育、得到启迪。要运用现代科技手段加强古籍典藏的保护修复和综合利用，深入挖掘古籍蕴含的哲学思想、人文精神、价值理念、道德规范，推动中华优秀传统文化创造性转化、创新性发展。要加强学术资源库建设，更好发挥学术文献信息传播、搜集、整合、编辑、拓展、共享功能，打造中国特色、世界一流的学术资源信息平台，提升国家文化软实力。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在图书馆考察。新华社记者 燕雁 摄', '随后，习近平来到世纪馆北大厅同中国人民大学师生代表座谈。中国人民大学党委书记张东刚、“人民教育家”国家荣誉称号获得者高铭暄、经济学院教授赵峰、新闻学院博士生周晓辉、哲学院本科生王海蓉先后发言，现场气氛轻松热烈。', '在认真听取大家发言后，习近平发表重要讲话。他强调，我国有独特的历史、独特的文化、独特的国情，建设中国特色、世界一流大学不能跟在别人后面依样画葫芦，简单以国外大学作为标准和模式，而是要扎根中国大地，走出一条建设中国特色、世界一流大学的新路。中国人民大学从陕北公学成立之初就鲜明提出要培养“革命的先锋队”，到新中国成立之初提出培养“万千建国干部”，到改革开放新时期提出培养“国民表率、社会栋梁”，再到新时代提出培养“复兴栋梁、强国先锋”，始终不变的是“为党育人、为国育才”，展现了“党办的大学让党放心、人民的大学不负人民”的精神品格。希望中国人民大学落实立德树人根本任务，传承红色基因，让听党话、跟党走的信念成为人大师生的自觉追求。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平同师生代表座谈并发表重要讲话。新华社记者 鞠鹏 摄', '习近平指出，高校是我国哲学社会科学“五路大军”中的重要力量。当前，坚持和发展中国特色社会主义理论和实践提出了大量亟待解决的新问题，世界百年未有之大变局加速演进，世界进入新的动荡变革期，迫切需要回答好“世界怎么了”、“人类向何处去”的时代之题。要坚持把马克思主义基本原理同中国具体实际相结合、同中华优秀传统文化相结合，立足中华民族伟大复兴战略全局和世界百年未有之大变局，不断推进马克思主义中国化时代化。加快构建中国特色哲学社会科学，归根结底是建构中国自主的知识体系。要以中国为观照、以时代为观照，立足中国实际，解决中国问题，不断推动中华优秀传统文化创造性转化、创新性发展，不断推进知识创新、理论创新、方法创新，使中国特色哲学社会科学真正屹立于世界学术之林。哲学社会科学工作者要做到方向明、主义真、学问高、德行正，自觉以回答中国之问、世界之问、人民之问、时代之问为学术己任，以彰显中国之路、中国之治、中国之理为思想追求，在研究解决事关党和国家全局性、根本性、关键性的重大问题上拿出真本事、取得好成果。要发挥哲学社会科学在融通中外文化、增进文明交流中的独特作用，传播中国声音、中国理论、中国思想，让世界更好读懂中国，为推动构建人类命运共同体作出积极贡献。', '习近平强调，好的学校特色各不相同，但有一个共同特点，都有一支优秀教师队伍。对教师来说，想把学生培养成什么样的人，自己首先就应该成为什么样的人。培养社会主义建设者和接班人，迫切需要我们的教师既精通专业知识、做好“经师”，又涵养德行、成为“人师”，努力做精于“传道授业解惑”的“经师”和“人师”的统一者。教育是一门“仁而爱人”的事业，有爱才有责任。广大教师要严爱相济、润己泽人，以人格魅力呵护学生心灵，以学术造诣开启学生智慧，把自己的温暖和情感倾注到每一个学生身上，让每一个学生都健康成长，让每一个孩子都有人生出彩的机会。老师应该有言为士则、行为世范的自觉，不断提高自身道德修养，以模范行为影响和带动学生，做学生为学、为事、为人的大先生，成为被社会尊重的楷模，成为世人效法的榜样。', '习近平指出，立足新时代新征程，中国青年的奋斗目标和前行方向归结到一点，就是坚定不移听党话、跟党走，努力成长为堪当民族复兴重任的时代新人。希望广大青年用脚步丈量祖国大地，用眼睛发现中国精神，用耳朵倾听人民呼声，用内心感应时代脉搏，把对祖国血浓于水、与人民同呼吸共命运的情感贯穿学业全过程、融汇在事业追求中。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平向师生们挥手致意。新华社记者 鞠鹏 摄', '习近平离开学校时，道路两旁站满了师生，大家激动地向总书记问好，齐声高呼“青春向党、不负人民”、“复兴栋梁、强国先锋”，习近平向大家挥手致意，掌声、欢呼声在校园内久久回荡。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>98</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>淮北市党政代表团赴蚌埠市学习考察</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2022-04-20</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://sjzy.huaibei.gov.cn/xwzx/zxxx/57096381.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['淮北新闻网讯 4月19日下午，市委书记张永，市委副书记、市长覃卫国率我市党政代表团赴蚌埠市，学习考察安徽自贸试验区蚌埠片区建设的先行做法和创新经验。蚌埠市委书记黄晓武，市委副书记、市长操龙灿陪同考察或出席座谈会。', '我市党政代表团先后考察了安徽自贸试验区蚌埠片区招商中心、安徽帝晶光电科技有限公司、安徽鸿程光电有限公司、康宁药用玻璃有限公司和凯盛光伏材料有限公司，学习借鉴蚌埠抢抓战略机遇、扩大对外开放、推进产业升级等方面的好经验好做法。', '在随后召开的座谈会上，张永说，近年来，在蚌埠市委、市政府的坚强领导下，蚌埠经济社会发展特别是安徽自贸试验区蚌埠片区建设取得了明显成效，形成了一批具有蚌埠特色的制度创新成果。4月12日，安徽自贸试验区淮北联动创新区获省政府批准设立。希望两市加强蚌埠片区与淮北联动创新区的规划衔接，围绕贯彻落实党中央及省委决策部署，结合各自实际，做到制度互动、优势叠加、平台共享，共同推动联动发展。加强政策承接，确保蚌埠片区建设的创新成果和成功经验在淮北联动创新区转化落地。加强产业链接，在新能源等领域积极合作，形成优势互补的产业发展格局。加强交通基础设施连接，加快淮-宿-蚌城际铁路等项目建设，深化两地互联互通。加强专班对接，保持密切联系，强化沟通交流，确保合作事项有效实施，深入推进高质量协同发展。', '黄晓武对我市党政代表团一行表示欢迎。他说，蚌埠与淮北历史关联、地缘相近、人文相亲，两地均因“淮”得名，同属于皖北，长期以来交流互动频繁。特别是双方作为老工业基地，共同面临转型压力，更需要紧抓安徽自贸试验区建设机遇，大力发展新材料、新能源等产业，充分发挥双方产业关联、运输一体、优势互补等特点，加强经济合作、推进自贸区联建，努力实现互利双赢。希望两市在贯彻落实省委省政府决策部署、推动皖北振兴中，进一步加强对接，共同用好自贸区各项政策和创新制度，奋力取得新的更大发展成就。蚌埠将充分发挥自身优势，聚焦“带动沿淮、辐射皖北”使命任务，全力为淮北联动创新区建设提供支持。希望双方以此次交流为新起点，紧抓机遇、合作共赢，共同推动安徽自贸试验区加快建设，促进两市经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>98</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>淮北市党政代表团赴徐州市学习考察</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2021-10-18</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://zhaoshang.huaibei.gov.cn/zszx/zsyw/56864121.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['10月15日，市委书记张永，市委副书记、市长覃卫国率我市党政代表团赴江苏省徐州市学习考察。徐州市委书记庄兆林，市委副书记、代市长王剑锋陪同考察并参加座谈交流。', '徐州市领导王安顺、王先正、张克、冯其谱，徐州市政府秘书长周天文；市领导方宗泽、谌伟、操隆山、周天伟、单强、汪继宏、姜颖、高维民、孙兴学，市政府秘书长徐涛参加考察活动。', '庄兆林对我市党政代表团表示欢迎，并介绍徐州经济社会发展情况。他表示，淮北市深入学习贯彻习近平总书记考察安徽重要讲话指示精神，在综合实力、城市转型、改革开放、城乡面貌、民生福祉等方面取得显著成绩，实现了由煤城向美城的蝶变，其中创造的成功做法和宝贵经验，值得深入学习、认真借鉴。淮北市是徐州市友谊深厚的好兄弟、关系紧密的好伙伴。近年来，两市大力推动淮海经济区协同发展，在产业协作协同、园区合作共进、交通互联互通等领域合作取得丰硕成果。希望两市抢抓启动编制淮海经济区协同发展规划的机遇，持续深化合作，在基础设施建设方面共同发力，进一步推动产业对接协作，建立更顺畅更高效合作机制，携手实现共赢发展。', '张永在座谈时表示，此次学习考察是全面对标习近平总书记关于扎实推进长三角一体化发展重要讲话指示精神的“讲看齐”之行、贯彻国家发改委和安徽省委省政府在蚌埠召开三个大会精神的“抓落实”之行、加快融入徐州都市圈的“促一体”之行。一路看、一路学，让我们深切感受到徐州建设产业强市的高标准、大手笔，打造区域中心的高站位、大格局，党员干部大兴“五种风气”、打造“五个徐州”的高起点、大担当。两市人缘相亲、地缘相近、业缘相融，希望双方进一步加强规划衔接，为开展各方面合作创造良好条件；加强政策对接，实现联动发展；加强区块链接，推进园区共建、城区共建、城市共建；加强交通连接，构建互联互通综合交通体系；加强产业承接，形成分工合理、优势互补的产业发展格局，深入推进高质量协同发展。', '在徐期间，我市党政代表团先后考察了中国矿业大学南湖校区、淮海国际陆港海关监管点、淮海科技城、华恒新能源、徐工重型、淮海人力资源服务产业园，学习借鉴徐州市推动产业升级、加快改革创新、推进招才引智等好经验好做法。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>98</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>市科技局到徐州市考察学习</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2021-11-25</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://kjj.huaibei.gov.cn/kjgz/gzdt/56914281.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['为深度融入徐州都市圈，学习借鉴徐州市科技创新成功经验，加强淮北市与徐州市在科技成果转移转化、科技人才资源共享等方面合作。11月24日，市科技局领导班子和有关科室负责人在王峰局长带领下，赴徐州市参观学习，徐州市科技局局长鲍斌、副局长黄亚珍陪同参观学习。', '王峰一行参观了徐州淮海科技城和江苏淮海技术产权交易中心，详细了解了淮海科技城产业和项目布局、管理运营模式以及政府支持政策等。', '在座谈会上，鲍斌介绍了徐州市在科技计划项目凝练、多领域培育高新技术企业、新型研发机构和双创平台建设及管理等方面的做法和经验，双方对做好科技创新加强科技成果转化，提升企业创新水平和资源共享、合作进行了深入交流。王峰代表淮北市科技局感谢徐州市科技局倾囊相授科技工作经验，表示要加强与徐州市科技局密切合作，结合淮北实际，借鉴成功经验，深度融入徐州都市圈，加速推进淮北科技创新工作，为高质量发展提供强力支撑。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>98</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>我市党政代表团赴徐州市学习考察</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2021-10-15</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/tpxw/60747471.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['徐州市领导王安顺、王先正、张克、冯其谱，徐州市政府秘书长周天文；市领导方宗泽、谌伟、周天伟、单强、汪继宏、姜颖、高维民、孙兴学，市政府秘书长徐涛参加考察活动。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>98</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>我市党政代表团赴蚌埠市学习考察</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2022-04-20</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/tpxw/61508591.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['4月19日下午，市委书记张永，市委副书记、市长覃卫国率我市党政代表团赴蚌埠市，学习考察安徽自贸试验区蚌埠片区建设的先行做法和创新经验。蚌埠市委书记黄晓武，市委副书记、市长操龙灿陪同考察或出席座谈会。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>98</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>县城管局局长孙孔明外出学习考察</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2021-03-09</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.sxx.gov.cn/zwgk/public/1871/59752441.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['2021年3月5日，濉溪县城管局局长孙孔明一行在淮北市城管局副局长任勇带领下赴徐州市城市管理局学习考察，徐州市城管局副局长张彪陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>98</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>杜集区统计局赴徐州铜山区考察学习</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2021-09-14</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.hbdj.gov.cn/xwzx/bmdt/60562121.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['9月10日，杜集区统计局党组书记、局长王晓东赴徐州市铜山区开展考察学习。王晓东首先到铜山区统计局与主要领导进行座谈交流，双方就统计队伍建设、统计机制改革、统计执法规范化及提高统计数据质量问题进行了探讨、交流。通过交流探讨，双方交换了统计工作中的经验和富有成效的方式方法，双方均获益良多。', '随后，王晓东前往徐工消防安全装备有限公司，在企业管理人员的带领下参观了徐工消防的车间及产品，了解了徐工消防在针对消防安全装备器械上所取得的进展和成果。', '杜集区统计局将以此次考察学习为契机，不断提升业务能力水平，为杜集区经济高质量发展贡献统计力量。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>98</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>杜集区发改委前往萧县考察学习</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.hbdj.gov.cn/xwzx/bmdt/60552781.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['近日，为了更好贯彻落实长三角一体化发展规划纲要，学习借鉴先进经验，区发改委党组书记、主任韩方军一行4人前往萧县发改委考察学习。', '座谈会上，萧县发改委党组书记、主任赵春云介绍了萧县今年上半年经济运行、产业发展、重点项目和产业园区建设等情况，并就产业园区建设展开深入交流，分享先进理念。', '韩方军指出，杜集区发改委要借鉴学习萧县先进发展理念、经验，紧扣“一体化”和“高质量”两个关键词，明确段园联萧融徐一体化发展，积极推进国土空间、基础设施等规划共同编制、项目共同实施。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>98</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>姜颖率队赴徐州市铜山区学习考察</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2021-07-16</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.hbdj.gov.cn/xwzx/tpxw/60524741.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['7月16日上午，区委书记姜颖率队赴徐州市铜山区学习考察，区领导梁龙义、孙露露、史庆超、孟磊、武亚萍参加活动。铜山区委书记、徐州高新区党工委书记龚维芳，铜山区委副书记、区长、徐州高新区管委会主任高建民等陪同考察。', '姜颖一行先后到徐州国家安全科技产业园、淮海生物医药产业园、徐工消防安全装备公司进行实地考察，大家一路走一路看，实地感受铜山经济社会发展取得的成果，对铜山取得新成绩给予高度赞扬。', '在随后召开的座谈会上，双方就省际毗邻地区一体化发展进行了深入交流。姜颖表示，这次学习考察活动，就是要叙两地之谊，学发展之路，取共建之经。铜山区充分发挥区位资源优势，抢抓机遇、乘势而上，加快融入中心城区，全力打造创新高地、产业高地、生态高地、宜居福地、善治高地，许多经验和做法值得杜集区学习和借鉴。姜颖希望，一是强化沟通交流，加强全方位多领域多层次联系，积极开展省际毗邻地区专题对接，探索通过市场化方式开展跨区域合作，实现互利共赢。二是强化合作交流，建立多层次、常态化的交流互访机制，各扬所长、相互赋能，合力争取上级各类优惠政策，不断深化省际毗邻区域合作，携手为长三角一体化发展作出更大贡献。三是强化干部交流，建立常态化跟班学习机制，加强干部尤其是年轻干部培养锻炼，更新理念、拓展思路，为高质量转型发展注入强劲动力和生机活力。', '龚维芳对姜颖一行的到来表示热烈欢迎。她表示，杜集在资源、产业、文化、康养等方面有许多独特优势，希望双方下一步加强规划双向研究，找到发展契合点、共同点，不断拓展合作的广度和深度，进一步巩固和发展两地优势互补、双赢发展的良好局面，携手推进省际毗邻地区新型功能区高质量建设。', '梁龙义、高建民分别就两区经济发展、产业培育、基础设施建设、生态环境治理等领域进行介绍。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>98</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>学习考察财政电子票据管理改革工作</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2020-07-24</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://czj.huaibei.gov.cn/ztzl/fssrgl/56241991.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['近日，我局组织市非税办（综合科）和县、区财政局相关人员，赴省非税局、合肥市财政局学习考察财政电子票据管理改革和政府购买服务工作。', '下一步，我局将借鉴他们的做法和经验，修订《淮北市财政电子票据管理改革实施方案》，尽快启动我市财政电子票据管理改革工作。同时，拟制定出台我市政府购买服务流程规范和绩效评价办法等相关制度，进一步规范我市政府购买服务工作。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>98</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>我市党政代表团赴河南商丘学习考察</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2020-12-09</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/tpxw/57325931.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['12月9日，市委书记黄晓武，市委副书记、市长覃卫国率我市党政代表团赴河南商丘市学习考察。河南省副省长、商丘市委书记王战营，商丘市委副书记、市长张建慧等陪同考察并参加座谈交流。商丘市领导陈向平、周树群、张弛、何振岭，市领导方宗泽、任东、李加玉参加考察活动。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>98</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>市民政局赴阜阳市学习考察</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2020-10-19</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/bmdt/57113541.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['10月15至16日，市民政局党组书记、局长王治江率队专程赴阜阳市学习考察养老服务发展情况和机关党建工作。局党组成员、市纪委监委驻局纪检监察组长胡利球，局党组成员、副局长许胜利和局四级调研员、机关党委书记胡超，局四级调研员、局养老服务科科长张春媛等参加学习考察。', '学习考察组先后实地考察了阜南县王家坝闸和临泉县华源、霞光养老项目，阜阳市红叶林养老服务公司、颖西街道、泉河社区养老服务站等，并就“十四五”养老规划编制和民政机关党建工作与阜阳市民政局党组书记、局长张春，局党组成员、市纪委监委驻局纪检监察组长吴静，局党组成员、副局长颊振林，局二级调研员汪亚、局四级调研员马飞等进行座谈交流。', '阜阳市对养老服务工作高度重视、提前谋划、精心部署，政策体系不断完善、基础设施不断提高、保障水平不断提升、服务产业不断壮大。该市对“十四五”期间的养老服务规划提前谋划，把养老服务业作为促进经济转型升级的新兴先导型服务产业重点打造。阜阳市民政局机关坚持明确责任、政治统领、夯实基础、围绕中心抓党建工作落实，为全市民政民生事业发展提供了坚强的组织保障，实现了党建工作与民政业务工作的“双丰收”。', '学习考察组表示，阜阳市民政局机关党建工作站位高、落点实、措施新，对我市进一步加强民政机关党建工作具有很好的学习借鉴价值；阜阳市民政局大力推进多元化养老模式，养、医、护、休闲、养生、旅游“六位一体”融合发展，对我市推动养老服务业高质量发展具有参考价值。下一步，市民政局将积极转化提高学习考察成果，以推动我市民政事业高质量发展。', '学习考察组在阜阳期间，阜阳市委副书记刘玉杰，市委常委、市委秘书长王波等领导同志会见了考察组全体成员。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>98</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>我市党政代表团赴徐州市学习考察</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2021-02-22</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/tpxw/59699421.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['2月22日，市委书记张永，市委副书记、市长覃卫国率我市党政代表团赴江苏省徐州市学习考察。徐州市委书记、市人大常委会主任周铁根，徐州市委副书记、市长庄兆林陪同考察并参加座谈交流。', '徐州市领导王安顺、徐大勇、王剑锋、王强、冯其谱，徐州市政府秘书长周天文；市领导方宗泽、谌伟、朱浩东、张力参加考察活动。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>98</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>区委书记姜颖率队赴宿迁学习考察</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2020-10-14</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.hbdj.gov.cn/xwzx/djyw/60401291.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['10月12日，区委书记姜颖率队赴宿迁市泗洪县、泗阳县、洋河新区等地学习考察。区委副书记陈爱军，区委办公室、三镇两街道、东昱建投等单位负责同志，以及部分村党总支书记参加考察。', '在泗洪县，姜颖一行实地考察了科晖现代农业碧根果产业园、县文化艺术中心、体育路广场等地，并与泗洪县委书记李爱华，泗洪县委常委、县政府常务副县长范德珩就现代农业、城市建设、民生等方面进行了交流。姜颖表示，泗洪经济社会发展保持良好态势，特别在产业发展、基础设施建设、生态保护等领域取得快速发展，形成的好经验、好做法值得杜集学习借鉴。希望两地能进一步加强交流，加深友谊，相互支持，合作协作。', '位于泗阳县爱园镇的松张口幸福家园，是由浙江蓝城集团统规代建的农房改建项目。该项目因地制宜引入“村芯”概念，根据苏北特点，延续乡村肌理，衬托乡野气息，观景借景，把蓝城小合院与新农居改造融合，打造了600余套限量版“中式小院”。在蓝城集团有关负责人的陪同下，姜颖一行进村入户，实地考察。姜颖要求，推进农村房屋改造建设，要符合发展规律，契合农民意愿，与脱贫攻坚、危房改造、农村人居环境整治、产业发展、民生保障等有机结合起来，既统一规划，又要满足群众个性化需求，因村制宜、因户施策，努力把农村建设成为既有田园气息，又有城市便利的幸福家园。', '在洋河新区党工委书记张联东，洋河股份监事会主席、双沟酒业党委书记陈太清的陪同下，姜颖一行考察了斯味特果品产业园、三葛国际乡村自然学校、洋河农业嘉年华、洋河酒厂等地。姜颖表示，杜集、洋河两地在白酒产业、酒文化旅游、精品果蔬、农旅融合等领域既有相似性也有互补性，合作空间广阔。希望双方进一步加强交流对接，结合两地特色，整合资源要素，积极谋划、落实一批对口合作事项，推动双方优势互补、互惠共赢、共促发展。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>98</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>烈山镇人大组织代表外出考察学习</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2019-05-27</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://www.lieshan.gov.cn/zwgk/public/218/18008411.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['为拓展思维、开阔视野，提高基层代表的履职能力水平和政治修养，充分发挥烈山镇人大代表在全镇经济发展和社会事业建设中的作用， 5月26日，烈山镇人大组织部分区镇人大代表到徐州汉王镇参观学习其在党建、特色产业发展、乡村旅游产业、生态乡村建设等方面的先进经验。', '代表团一行先后参观了汉王村、虎腰村、北望村、月亮湾等，代表们亲身感受了近年来汉王镇在党建、园区建设、特色经济等方面取得的成就。此次外出参观学习，各位代表边走边看，边学边议，学到了好的经验，收获很大。 代表们纷纷表示，回去后一定充分发挥人大代表的作用，要把参观学习的所见、所闻、所得认真向其他群众作好宣传，要进一步解放思想，找到差距，学习和借鉴这些成功的发展模式，结合本地实际，拓宽发展思路，积极为本村、本地区的发展谋出路，敢于带动群众走致富路，借力推动烈山镇经济事业不断发展。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>98</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>王峰率队赴省农科院考察学习</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2018-09-03</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://kjj.huaibei.gov.cn/zwgk/public/21/5055001.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['为加强产学研合作，促进农业科技成果转化。8月28日下午，市科技局党组书记、局长王峰一行赴省农业科学院考察学习，与省农业科学院园艺所果树研究室主任孙其宝等进行了交流座谈。', '王峰一行实地查看了省农科院枣子种质资源圃、葡萄示范基地，孙其宝教授介绍省农科院近年来获得国家科技进步特等奖、一等奖各1项，省部级一等奖19项、二等奖24项，获植物新品种授权75个，专利授权387件，水稻两系育种、油菜杂交育种、蔬菜育种、石榴基因组、基因指纹技术等研究达到国内先进水平。', '王峰局长介绍了淮北农业和农业科技发展情况，提出淮北地处皖北平原，在农业发展上具有得天独厚的优势，尤其淮北林果发展特色明显，塔山石榴、黄营灵枣、大庄葡萄已享有很高的知名度，在农产品深加工上也有产业基础，望省农科院继续加强与淮北合作，让农业科技成果在皖北大地生根发芽。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>98</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>蚌埠市赴我市学习考察民生工程</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2017-05-27</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://fgw.huaibei.gov.cn/hbms/gzbs/7718051.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['蚌埠市赴我市学习考察民生工程_淮北市发展和改革委员会（淮北市粮食和物资储备局、淮北市能源局）', '本页面是由1个视窗区、1个服务区，共计2个区域组成您可以Alt+2键循环切换视窗区，Alt+6键循环切换服务区', '，蚌埠市民生办主任张中杰率队赴我市学习考察民生工程工作，市民生办主任王春强、杜集区财政局局长杨登俊、区民生办负责人王海洋陪同考察。', '在听取我市民生工程工作情况介绍后，考察组认为在民生工程推进过程中，我市创新举措，强抓落实，在政策宣传报道、推进机制、建后管养等方面持续发力，立足实际用心干实事，连续九年位居全省第一方阵，许多经验值得学习借鉴。考察组还观摩了我市杜集区推进机制及建后管养工作，先后查看2017年已完工小型水利改造提升工程现场、双楼村敬老院、农产品食品安全检验室、农村饮水安全工程及美丽乡村建设等项目。考察组每到一处都详细询问运行管理情况、管养经费落实情况、监督管理等情况，对朔里镇中心水厂社会力量投入，“建管合一”的运行模式给予充分肯定。对高岳敬老院完善的硬件设施完善，医养结合的管理方式表示赞扬。', '考察组每到一处都详细询问运行管理情况、管养经费落实情况、监督管理等情况，对朔里镇中心水厂社会力量投入，“建管合一”的运行模式给予充分肯定。对高岳敬老院完善的硬件设施完善，医养结合的管理方式表示赞扬。', '，考察人员表示，蚌埠市民生工程将借鉴我市杜集区工作经验、认真学习，不断落实好民生工作，提升民生工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>98</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>市招商局副局长王杨赴苏浙学习考察</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2017-09-12</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://zhaoshang.huaibei.gov.cn/zwgk/public/90/5522151.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['王杨与市政府办、市台办有关领导一行先后赴淮安、宿迁学习考察。淮安是国务院台办点名表扬的对台工作优秀市，目前四大主要产业均由台资支撑，分别有旺旺食品，富士康电子，聚敏安新能源汽车、台玻实联化工等。1200多家台资企业贡献了18%财政收入，28%的GDP，32%工业产值，60%进出口。宿迁市由京东的刘强东开始，先后引进了当当、途牛、小米等多家企业。去年，仅电子商务产业园的10平方公里，带动就业4万多人，税收6亿元。两市的先进经验对转型发展中的淮北有很大的借鉴意义。', '王杨还赶赴湖州，陪同市委书记、市人大常委会主任黄晓武，市委常委、市政府党组成员、市委政法委书记钱界殊等领导拜访了香飘飘集团。香飘飘集团是目前中国最大的杯装奶茶专业制造商，连续五年销量领先。王杨介绍了淮北发展食品产业的优越条件，邀请集团公司来淮考察，谋划打造现代化、特色化的中部生产基地。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>98</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>肖超英黄晓武率团赴芜湖市学习考察</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2015-08-24</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://dsdfz.huaibei.gov.cn/xxfb/jjhb/7582781.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['8月20—21日，市委书记、市人大常委会主任肖超英，市委副书记、市长黄晓武率团赴芜湖市学习考察。市委常委、常务副市长沈光继，市委常委、秘书长、统战部长方宗泽及濉溪县有关负责同志参加考察。 肖超英、黄晓武一行在芜湖市委书记、市人大常委会主任高登榜，市委副书记、市长潘朝晖，市委常委、常务副市长左俊等陪同下，先后参观考察了芜湖县东湖公园、安徽新芜文化创意企业孵化器有限公司、芜湖荣基密封系统有限公司、埃夫特智能装备有限公司、华强文化产业园、芜湖市规划馆、三只松鼠电子商务有限公司，并举行了交流座谈会。 肖超英在考察中指出，芜湖的发展速度令人振奋，转型升级步伐稳健，城市建设日新月异，干部作风严而又实，特别是大手笔的城市规划、高档次的园区建设、富有创意的文化产业和超前发展的电商产业，给人留下深刻印象，看了以后非常震撼，值得我们学习借鉴。 座谈会上，芜湖县、濉溪县负责同志汇报了产业园区合作共建和濉芜产业园建设情况。潘朝晖介绍了芜湖市经济社会发展情况，希望濉芜现代产业园进一步开拓创新、锐意进取、攻坚克难，全力推进招商引资与项目建设。他表示，芜湖市将积极提供资金、人才、项目等支持，完善合作共建长效机制，与淮北共同推进园区共建，实现共赢发展。 黄晓武介绍了我市经济社会发展情况。他说，当前淮北面对煤炭市场持续低迷的严峻形势，积极应对经济下行压力，抓住政策机遇，加速发展电子信息、铝基新材料、煤化工、食品工业等产业，加快推进城市转型。同时着力解决发展中急需解决的突出问题，加快东部新城建设，提升百姓生活品质，创造良好生态环境。芜湖与淮北有许多互相借鉴、互相补充的地方，淮北将组织市县干部赴芜湖学习考察，进一步加强与芜湖的交流合作，全力推进濉芜现代产业园建设发展，希望两市进一步加强交流合作，加深友谊感情，实现优势互补，携手共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>98</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>王峰率队赴南京栖霞区考察学习</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2018-09-27</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://kjj.huaibei.gov.cn/zwgk/public/21/5055011.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['为更好地服务科技型企业，打通企业与技术、成果、人才对接的通道，推进科技成果转化，促进技术成果交易，实现企业科技提升，9月19日上午，市科技局党组书记、局长王峰率队赴栖霞区进行考察学习。王峰局长一行参观了栖霞区技术转移市场--“霞科行”，与栖霞区科技局副局长詹阳、科易网华东地区总经理邱曦等人进行了座谈交流。', '栖霞区技术转移市场--“霞科行”是由南京栖霞区科学技术局采取第三方外包全市场化运营方式，联合国内专业运营商--科易网共建的区域技术转移平台。“霞科行”按照互联网+全要素、全流程、全链条的要求，建设一个集评估、发布、查询、撮合、交易、路演、中介、金融与共享多种功能的区域技术转移一站式综合服务载体，并形成一个线上网络平台、一处线下服务大厅和一套市场运营体系三位一体工作架构。“霞科行”获得首批“江苏省技术产权交易市场工作站”。', '王峰局长表示，栖霞区技术转移市场--“霞科行”功能强大，能够协同产、学、研、政、金、介六位创新主体，高效对接信息并促进技术转移，是科技创新资源缺乏区域运用技术转移平台解决创新资源短板问题的有力载体。我市将结合自身实际，学习先进经验，探索建立符合我市科技现状的技术转移平台。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>98</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>阜阳市地方志办公室来淮学习考察</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2013-09-06</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://dsdfz.huaibei.gov.cn/xxfb/jjhb/7582401.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['近日，阜阳市地方志办公室来我市学习考察方志馆建设工作。阜阳市市志办主任蔡建国、太和县市志办主任一行3人在市志办主任张继玲的陪同下，参观了电子阅览室的电子翻书和电子数据库，并亲自操作，随后浏览地情阅览室的书目及了解征集图书的渠道。以此借鉴该市的方志馆建设工作。', '阜阳和淮北两市均属淮北地区，阜阳主要以曹魏文化为主，淮北以沛汉文化为主。我市古铚县（临涣）、古相县与阜阳市单阝（今涡阳县丹城集）、山桑（今蒙城县坛城）、谯(今亳州市)、城父（位于今亳州市境内）4县在三国以前分属泗水郡、沛郡、谯郡管辖。', '近年来阜阳市对交通文化、农民工文化、庄子文化、酒文化等文化研究取得较好的成绩。双方表示能进一步加强文化合作与交流，促进两地方志事业的发展，为两地的经济建设做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>98</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>亳州市地方志办公室来淮学习考察</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2013-08-20</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://dsdfz.huaibei.gov.cn/xxfb/jjhb/7582371.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['近日，亳州市地方志办公室来我市学习考察方志馆建设工作。亳州市市志办主任时明金一行详细的了解和学习了我市方志馆的建设经验。准备建设600平方米的亳州史志馆。', '亳州市与淮北相毗邻。亳州主要以曹魏文化为主，淮北以沛汉文化为主。我市古铚县（临涣）、古相县与亳州在南北朝以前都同属泗水郡、沛郡、谯郡管辖。', '近年来亳州市对医药文化、曹魏文化、庄子文化、古井酒文化等文化研究取得较好的成绩。双方表示能进一步加强文化合作与交流，促进两地方志事业的发展，为两地的经济建设做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>98</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>市医保局考察组赴衢州市考察学习医疗保障工作</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/bmdt/63010740.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['9月11日，市医保局党组书记、局长郜锦华带队赴浙江省衢州市医保局考察学习国家医保个人信息授权查询试点、省级电子票据应用试点、医保智能化监管及医保精细化管理等相关工作，实地感受先进城市创新发展的活力，学习医保发展的好经验好做法，寻求加快我市医保事业高质量发展的“金钥匙”。', '考察组一行与衢州市医保局主要负责同志及重点工作牵头负责同志通过现场演示和座谈交流的形式，围绕医保信息化建设、医保精细化管理、医保基金监管等工作展开讨论，衢州市局重点介绍了“浙里医保守护智慧监管平台”建设情况，针对医保精细化管理思维导图进行条线式的介绍。考察组重点考察学习了相关经验及取得成效，拓宽了新视野、打开了新思路，在医保精细化管理上，找到了差距、提振了干劲。', '下一步，市医保局将深入学习借鉴先进地区的创新做法，借梯登高、坚定实干、拉升标杆，扎实推进国家及省级试点建设，不断提升医保智能化监管水平，加强医保精细化管理，为加快建设“五宜”幸福城市贡献更多医保力量。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>98</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>淮北市卫生健康委考察组赴徐州市考察学习卫生健康工作</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/bmdt/63018668.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['9月8日，淮北市卫生健康委党组书记、主任刘文远带队赴徐州市考察学习卫生健康工作，并商谈结对合作事宜。徐州市卫生健康委党委书记、主任黄广振，党委委员、副主任杨洪涛、王凯等委领导和有关医疗机构负责人等出席考察交流座谈会或参加考察。', '刘文远一行先后到徐州市中心医院新城区分院、市第一人民医院、市第一人民医院医疗事业集团文沃社区卫生服务中心等医疗机构，考察学习口腔、眼科、消化内科等重点专科和紧密型城市医疗集团建设经验。', '随后召开的座谈会上，刘文远介绍了淮北市经济社会发展、医疗卫生事业资源情况，对深化徐淮卫生健康结对合作提出意见建议。希望双方进一步拓展卫生健康合作领域，丰富合作内涵，立足双方发展需求，开展更深入的沟通对接，共同谋划发展思路和工作举措，推动两市卫生健康事业一体化、高质量发展。希望徐州能将更多的优质医疗资源向淮北延伸，在重点专科和人才队伍建设、科研教学、医院管理等方面，支持更多的医院，通过共建、帮扶等模式，给予淮北更多的建议指导，让两市医疗卫生合作更加紧密、更有实效。淮北市卫生健康委将始终秉持真心、真情、真诚，拿出更多实招、新招、硬招，与徐州市卫生健康委携手前行、并肩奋斗，共同推动两市卫生健康领域交流合作不断迈上新台阶。', '黄广振对淮北市卫生健康委考察组一行表示欢迎，介绍徐州市卫生健康事业基本情况，特别是城市医疗集团、重点专科建设和卫生人才培养等重点工作开展情况。就两市医疗卫生结对合作，指出两市卫生健康委应加强沟通交流，按照“一院一策”原则，指导双方医疗卫生机构建立对接帮扶关系，从提高专科服务能力、提升危急重症救治能力、培育专业技术人才和提高医院运营管理水平等方面，全面加强受援医院能力建设，快速提升区域医疗卫生服务水平，共同搭建合作共赢、互惠互利的协同发展平台。', '市卫生健康委党组成员、驻委纪检组组长许海平，市卫生健康委副主任王蕾，市卫生健康委党组成员、副主任王雅琳，市卫生健康委二级调研员孙欣，市人民医院党委书记赵海浩，市中医医院党总支书记宋琦和市卫生健康委有关科室负责人等参加考察学习。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>98</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>萧县地方志办公室来淮学习考察</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2013-05-03</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://dsdfz.huaibei.gov.cn/xxfb/jjhb/7582311.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['近日，萧县地方志办公室来我市学习考察年鉴编纂工作经验，并在濉溪县地方志办公室召开座谈会。', '淮北市与萧县一衣带水，地相近，人相亲，习相同，地域历史文化同源，虽有区划的限制，但具有不可舍割性。两地应进一步加强合作交流，扩大地情研究范围，更好地传承和发扬壮大相通相近的历史文化，能各自为所辖区域的经济建设作出积极的贡献，共同推进皖北地区地方志事业的繁荣发展。萧县地方志办公室表示一定会将《淮北年鉴》和《濉溪年鉴》编纂好的经验和做法带回去，认真学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>98</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>市乡村振兴局组织赴萧县学习考察</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2023-07-19</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>https://ny.huaibei.gov.cn/tslm/ggtztpgjcg/zxyw/57779232.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['7月18日，市乡村振兴局组织业务骨干赴萧县学习考察，学习借鉴产业就业帮扶、积分制、防返贫动态监测帮扶工作先进经验做法。', '考察组一行先后实地参观萧县白土镇张村现代农业示范园、杨楼镇新廷社区、黄口镇乡村振兴产业基地。在各学习点，考察人员认真听取经验介绍，深入探讨交流，对标主动寻找差距，通过“取经问道”，理清思路、加压提升。', '在全国乡村治理示范村、省乡村振兴示范村—杨楼镇新廷社区，考察组实地参观社区党建引领、乡村治理等情况，并同社区干部围绕做好党组织领办合作社助推村集体、村民“双增收”，作深入座谈交流。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>98</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>市国防动员办赴六安合肥考察学习</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://gfdy.huaibei.gov.cn/xwdt/gzdt/57597881.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['为深化人防领域“放管服”改革，进一步做好优化营商环境工作，6月8日至9日，市国动办在办党组成员、副主任李明军的带领下，先后到六安市、合肥市国动办进行了考察学习。工程管理所、防护工程科（政策法规科）的相关同志也同行参与考察。', '在六安期间，我办在六安市国动办党组成员、副主任黄源的陪同下，参观了六安市人民防空指挥工程，并参加了座谈。会上双方就政务服务事项进驻、不见面审批、电子证照、工程管理、人防规划等进行了深入交流，学习了该市在提高人防审批服务质量的相关做法。', '在合肥期间，在合肥国动办党组成员、副主任郭孝成的主持下，我办与合肥市国动办人防窗口、工程处、人防工程质量监督站、人防设施监督管理处相关负责同志就相关业务开展座谈。重点在解决分期的工程建设项目人防审批、人防工程监管、质量监督相关问题上进行了交流发言。', '通过考察，我市人防系统与六安、合肥加强了沟通联系，相关好的经验做法将会有力的促进我市人防领域营商环境得到完善。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>98</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>汪华东率队赴淮安市考察学习</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2023-07-08</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/tpxw/62958955.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['近日，市委副书记、市长汪华东率队赴淮安市考察食品产业。他强调，要发挥我市食品产业基础优势、比较优势，学习先进经验，做足“粮头食尾”“畜头肉尾”“农头工尾”文章，促进一二三产融合发展，加快打造皖北高端绿色食品生产加工供应基地。市政协主席、市委政法委书记钱界殊，市政府秘书长徐涛参加。淮安市政协主席戚寿余，市委常委、常务副市长顾坤，市政府秘书长刘爱国分别陪同考察。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>98</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>习近平在宁夏考察调研</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://swj.huaibei.gov.cn/swzx/szyw/57776832.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['19日下午，习近平总书记在宁夏回族自治区考察调研。他来到银川市金凤区长城花园社区，了解社区发挥基层党组织作用、优化便民惠民服务、推动各族群众交往交流交融等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、燕雁、翟健岚）', '习近平在宁夏考察时强调：建设黄河流域生态保护和高质量发展先行区 在中国式现代化建设中谱写好宁夏篇章', '习近平在青海考察时强调：持续推进青藏高原生态保护和高质量发展奋力谱写中国式现代化青海篇章']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>98</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>习近平在宁夏考察调研</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/dzy/64494779.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['19日下午，习近平总书记在宁夏回族自治区考察调研。他来到银川市金凤区长城花园社区，了解社区发挥基层党组织作用、优化便民惠民服务、推动各族群众交往交流交融等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、燕雁、翟健岚）', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>98</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>安徽大学考察组来淮开展产学研对接考察活动</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/ldhd/60812071.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['10月28日至29日，安徽大学党委常委、纪委书记王忠带领由安徽大学生命科学学院、发展规划处、科技处负责同志及有关专家教授组成的考察组，来我市开展校地、校企产学研对接考察活动。市人大常委会主任方宗泽，党组副书记李加玉，副主任胡百平，党组成员赵德荣陪同考察并参加座谈交流。', '王忠一行先后来到安徽中鸣科技有限公司、安徽天成新材料有限公司、安徽凯泽新材料公司、安徽碳鑫科技有限公司等高新技术企业，以及淮北德兰和创生物科技有限公司、安徽盛美诺生物科技有限公司、人良生物科技（安徽）有限公司等重点食品企业实地考察。考察期间，专家教授们深入企业生产车间，参观企业生产工艺、加工制造与装配生产线，详细了解了企业有关技术装备、检测手段、新产品研发、产品市场销售、科技人才引进等方面的情况，并针对生产工艺方面存在的技术瓶颈问题进行探讨，为后续校企产学研合作寻找切入点。', '方宗泽对考察团来淮表示热烈欢迎，并介绍了我市经济社会发展以及产业布局、科学技术、人才需求等方面情况。他希望安徽大学与我市进一步加强校地、校企产学研合作，推动经济增长方式由要素驱动向创新驱动转变，实现企业、高校和科研院所深度融合，加快形成创新合力。方宗泽要求，市直有关部门要筛选企业亟待解决的技术需求，充分利用安徽大学优质科研成果，积极为企业做好科技创新服务；要重点围绕先进高分子结构材料、绿色食品、医药健康、智能制造装备、文化旅游等主导产业开展合作，推动重点产业集群和产业链高质量发展。', '王忠表示，安徽大学将充分发挥人才和技术优势，进一步加强交流与合作，在校地产学研合作、产业研究院及高层次人才团队等方面建立健全战略合作交流机制，精准服务淮北更高质量转型发展。', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>98</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>淮北市林业局赴徐州市学习考察科学绿化工作</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2021-11-11</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://lyj.huaibei.gov.cn/xxfb/gzdt01/56896551.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['介绍。考察组认为徐州市近年来高起点规划、大手笔投入，以精心、精细、精致、精品的理念打造城市绿化景观工程，', '淮北市与徐州市地缘相近、人缘相亲、业缘相融，徐州市城市绿化工作成效明显，领导高度重视，创新举措高、资金投入大、工作措施实；', '治理成效明显，探索出了破解石灰岩山地绿化难题的有效方法，成为全国石灰山体造林样板工程；湿地绿化规划标准高，工作协作机制、投入保障机制、造林绿化机制健全。城市绿化工作全市一盘棋，亮点纷呈、经验丰富、工作扎实，许多方面值得我们好好学习。下步，要深化思想认识，充分认清形势，把长三角一体化作为最大机遇，深化合作，制定我市城市绿化、采石宕口生态修复和湿地绿化方案，拿出新举措。看到优势，正视困难，坚定信心，立足实际，切实提高城市绿化和科学绿化水平，为淮北全面绿色转型发展样板区建设贡献林业力量。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>98</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>淮北市人民医院考察组赴扬州市考察学习城市医疗集团建设工作</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://wjw.huaibei.gov.cn/ygdt/57691439.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['8月22日，淮北市人民医院党委书记赵海浩带队赴江苏省苏北人民医院考察学习城市医疗集团建设先进经验，为建设我市紧密型城市医疗集团，创新集团管理体制、完善运行机制、拓展服务模式等拓展思路、取经问道。江苏省苏北人民医院党委委员、副院长郑瑞强及相关部门负责人接待座谈。', '座谈会上，郑瑞强就在扬州市委、市政府的主导下，苏北人民医院牵头组建1+2+N模式医疗集团(1家三级甲等公立医院、2家县级公立医院、N家基层医院)，从设备共享、联合病房、双向转诊、名医工作室、检查中心、服务中心、医疗质量同质化管理、围手术期患者管理等方面作经验介绍。两院就城市医疗集团建设的领导组织架构、运行机制、功能定位、一体化管理、医疗资源下沉共享、家庭医生签约等具体做法及促进医防融合、预防为主工作落地见效，形成“小病在基层、大病在医院、康复回社区”的有序就医格局进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>98</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>市卫生计生委考察团赴来安县界首市考察学习县域医共体建设</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2017-08-29</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>https://wjw.huaibei.gov.cn/ygdt/5728901.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['8月23日－25日，市卫生计生委党委书记、主任张辉带队，委分管副主任、相关科室负责人，濉溪县分管副县长、县卫生计生委主任、县财政、人社、发改、编办等部门相关负责同志、县卫生计生委副主任及相关股室负责人及牵头医院院长参加，一行16人赴滁州市来安县、阜阳市界首市考察学习县域医共体工作。', '在来安县、界首市卫生计生委、县医院等相关单位负责人精心安排下，考察学习采取了先现场观摩后座谈的形式。考察学习团在来安家宁医院参观考察了该院远程会诊中心和家庭医生健康管理中心，在随后的座谈交流会上，与会双方对紧密型医共体建设方案与思路进行充分探讨。在界首市，考察学习团一行先后深入到界首市陶庙镇孙小集村卫生室、界首市人民医院，通过现场观摩，在讲解员讲解下，全面了解县域医共体建立、运行、发展情况，绩效考核建立及落实情况，和“医防融合医共体”信息化建设、使用情况。', '座谈会上，考察学习团一行听取了来安县卫生计生委介绍以绩效考核为抓手推行紧密型县域医共体开展情况，界首市卫生计生委“关于医防融合医共体开展的工作报告”，并就“基层医疗卫生人才、基建设备、绩效分配、信息化建设” 等问题做了交流。（基层卫生科）']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>98</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>区考察团赴先进地区学习考察文明创建及信访维稳工作</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2017-02-28</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>https://www.hbxs.gov.cn/xwzx/ztzl/jqzt/cjwmcs/57407511.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['2月22日至26日，区委副书记郜锦华，区委常委、副区长徐小丹，区委常委、宣传部长曹梅，副区长戴剑峰赴嘉兴市秀洲区、杭州市上城区、芜湖市镜湖区考察学习文明创建、城市管理和信访维稳工作。区文明办、区城管执法局、区信访局、区物业管理局和部分镇街负责人参加考察。', '在秀洲区期间，考察团一行在秀洲区委副书记刘君等领导的陪同下，先后到秀洲区社会矛盾联合调解中心、新塍·全国社区治理实践基地、秀洲国家高新区展示馆等地进行了实地考察。在随后的座谈会上郜锦华表示，秀洲区将优秀传统文化深度融入文明创建及城市管理、构建多元体系推动矛盾纠纷化解、整合社会力量创新社区发展等做法为相山区相关工作开展提供了优秀范例，让人很受启发。希望两区作为缔结友好区，能够进一步加强沟通、增进了解、加深友谊。', '在上城区期间，考察团一行在上城区委常委宣寅等领导的陪同下，先后考察了上城区智慧城管平台和西湖大道综合提升工程。上城区利用新一代信息技术、网络技术、物联网技术打造“智慧城管平台”，构建“网格化管理、组团式服务、联合式执法”大城管格局的先进做法给考察团一行留下深刻印象。郜锦华表示，上城区把信息网络等现代化手段广泛应用于城市管理之中，实现了高标准、全覆盖、精准定位、实时调度的数字化管理，在严管、严控的同时提升了服务群众水平和城市管理的效率、效果，值得深入学习借鉴。', '在镜湖区期间，考察团一行在镜湖区委副书记许兰等领导的陪同下，先后实地考察了星隆国际·芜湖小吃街、红梅社区服务中心、香苑社区老旧小区整治工程及镜湖区数字化城管指挥中心。在座谈交流中郜锦华表示，镜湖区作为芜湖市中心城区和服务业核心区，在文明创建、城市管理等工作中与相山区有许多共通之处，镜湖区以商业综合体吸纳流动摊点、通过社区民主自治强化社区建设、依托数字城管提升城市管理能力等做法对相山区有很大的启示意义，希望两区进一步加强交流、取长补短、共同进步。', '郜锦华强调，各相关单位要积极学习借鉴秀洲区、上城区、镜湖区在文明创建、城市管理和信访维稳等工作中的好经验、好做法，结合相山实际创造性地开展工作。要在提升工作主动性和执行力上再下功夫，切实做好创建大考迎检、城市综合管理、社会矛盾化解等各项工作，为我区经济社会更好更快发展，加快中国碳谷·绿金淮北和品质相山建设贡献更大的力量。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>98</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>交流学习取经验凝心聚力促提升任圩街道组织考察团外出考察学习党建工作</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2019-02-15</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://www.hbxs.gov.cn/zwgk/public/159/56005971.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['交流学习取经验凝心聚力促提升——任圩街道组织考察团外出考察学习党建工作_相山区人民政府信息公开网', '为进一步开阔街道基层党建工作视野，推动开展城市基层党建工作，提升街道、社区党群服务中心打造水平，2月15日，任圩街道党工委书记孟杰带领考察团一行6人赴徐州市贾汪区、泉山区进行参观考察。', '考察团一行先后参观了徐州市潘安湖街道马庄村、翟山街道管道二公司社区、泰山街道风华园社区，通过实地查看、现场交流等方式，全面了解了村、社区社区党建服务中心的实体化运作、党建品牌打造、服务中心场馆阵地建设、党员志愿服务等工作，进一步开拓了基层党建工作新思路。', '考察学习过程中，大家都以虚心的态度边听边看、边学边记，拿起手机拍照学习，并进行相互交流探讨。通过对徐州市潘安湖街道马庄村、翟山街道管道二公司社区、泰山街道风华园社区党建工作成果的现场参观学习，大家纷纷表示此次外出考察学习受益匪浅，在工作思维、工作方法等都有很大感触，感受到了浓厚的党建文化氛围和群众的高参与度，尤其是在引领居民自治、创建党建品牌等方面学习和借鉴到了很多经验。', '下一步，任圩街道党工委将以此次参观学习为契机，进一步提升党建工作建设，结合街道实际创新思路，把先进经验做法、理念体现在实际工作中，把实实在在的收获转化为工作的动力，推动基层党建工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>98</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>习近平在青海考察调研</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2024-06-20</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/dzy/64493517.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['18日下午，习近平总书记在青海省考察调研。他先后来到西宁市的果洛西宁民族中学和宏觉寺，了解当地深入推进教育工作东西部协作和对口支援、加强铸牢中华民族共同体意识教育和藏传佛教界弘扬爱国爱教优良传统、促进民族团结进步等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、燕雁、岳月伟、翟健岚）', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>98</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>习近平在青海考察调研</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2024-06-20</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://swj.huaibei.gov.cn/swzx/szyw/57775951.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['18日下午，习近平总书记在青海省考察调研。他先后来到西宁市的果洛西宁民族中学和宏觉寺，了解当地深入推进教育工作东西部协作和对口支援、加强铸牢中华民族共同体意识教育和藏传佛教界弘扬爱国爱教优良传统、促进民族团结进步等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、燕雁、岳月伟、翟健岚）', '中央军委政治工作会议在延安召开习近平出席会议并发表重要讲话强调贯彻落实新时代政治建军方略为强军事业提供坚强政治保证', '习近平对防汛抗旱工作作出重要指示要求全力应对灾情做好防汛抗旱抢险救灾各项工作切实保障人民群众生命财产安全和社会大局稳定']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>98</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>习近平在重庆考察调研</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/dzy/64442844.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['4月22日至23日，习近平总书记在重庆市考察调研。他先后来到重庆国际物流枢纽园区、九龙坡区谢家湾街道民主村社区、重庆市数字化城市运行和治理中心，了解当地加快建设西部陆海新通道、实施城市更新和保障改善民生、提高城市治理现代化水平等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、王晔、岳月伟）', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>98</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>习近平在重庆考察调研</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://swj.huaibei.gov.cn/swzx/szyw/57756872.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['4月22日至23日，习近平总书记在重庆市考察调研。他先后来到重庆国际物流枢纽园区、九龙坡区谢家湾街道民主村社区、重庆市数字化城市运行和治理中心，了解当地加快建设西部陆海新通道、实施城市更新和保障改善民生、提高城市治理现代化水平等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、王晔、岳月伟）', '习近平主持召开新时代推动西部大开发座谈会强调：进一步形成大保护大开放高质量发展新格局奋力谱写西部大开发新篇章']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>98</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>习近平在上海考察调研</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>https://swj.huaibei.gov.cn/swzx/szyw/57715696.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['28日至29日，习近平总书记在上海市考察调研。他先后考察上海期货交易所、上海科技创新成果展、闵行区新时代城市建设者管理者之家，了解上海增强国际金融中心竞争力、推进国际科技创新中心建设、保障性租赁住房建设等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、王晔、申宏）', '习近平主持召开深入推进长三角一体化发展座谈会强调：推动长三角一体化发展取得新的重大突破在中国式现代化中更好发挥引领示范作用', '习近平在中共中央政治局第十次集体学习时强调：加强涉外法制建设营造有利法治条件和外部环境']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>98</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>习近平在上海考察调研</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/dzy/63084704.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['28日至29日，习近平总书记在上海市考察调研。他先后考察上海期货交易所、上海科技创新成果展、闵行区新时代城市建设者管理者之家，了解上海增强国际金融中心竞争力、推进国际科技创新中心建设、保障性租赁住房建设等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、王晔、申宏）', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>98</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>习近平在四川考察调研</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://www.huaibei.gov.cn/xwzx/dzy/62973115.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['25日下午和26日下午，习近平总书记在四川省广元市、德阳市分别考察了翠云廊古蜀道、三星堆博物馆，了解当地推进历史文化传承、加强生态文明建设和历史文化遗址发掘研究、文物保护修复等情况。（文字记者：朱基钗、林晖；摄影记者：鞠鹏、谢环驰、李涛）', '全省安全生产电视电话会议暨省安委会全体会议召开 汪华东在淮北分会场就我市贯彻落实工作提出要求', '淮北市2023年初中学业水平考试考生成绩（含九年级、八年级成绩，政策性加分）分档表']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>98</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>习近平在四川考察调研</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://sjzy.huaibei.gov.cn/xwzx/szyw/57671711.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['25日下午和26日下午，习近平总书记在四川省广元市、德阳市分别考察了翠云廊古蜀道、三星堆博物馆，了解当地推进历史文化传承、加强生态文明建设和历史文化遗址发掘研究、文物保护修复等情况。（文字记者：朱基钗、林晖；摄影记者：鞠鹏、谢环驰、李涛）', '第三十一届世界大学生夏季运动会开幕式28日晚在四川成都举行习近平将出席开幕式并宣布大运会开幕']</t>
         </is>
